--- a/ECellOptimization.xlsx
+++ b/ECellOptimization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="1380" windowWidth="43020" windowHeight="26200" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="5300" yWindow="1000" windowWidth="43020" windowHeight="26200" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="7-19-16" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="8-4-16" sheetId="8" r:id="rId7"/>
     <sheet name="Results 8-4-16" sheetId="9" r:id="rId8"/>
     <sheet name="Results 8-4-16 Reorganized" sheetId="10" r:id="rId9"/>
+    <sheet name="8-11-16" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="272">
   <si>
     <t>SV40</t>
   </si>
@@ -807,6 +808,51 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>this was only half of the lipo we needed</t>
+  </si>
+  <si>
+    <t>calculating for x wells each (even though each is only in three) and knowing that all vectors are diluted 100ng/ul</t>
+  </si>
+  <si>
+    <t>formula: (ngVector + (ngVector*0.1(ngVector)))/100  *x(number of wells)</t>
+  </si>
+  <si>
+    <t>calculating for 10 wells each  and knowing that all vectors are diluted 100ng/ul</t>
+  </si>
+  <si>
+    <t>formula: (ngVector + (ngVector*0.1(ngVector)))/100  *10(number of wells)</t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>for 0.5 ng</t>
+  </si>
+  <si>
+    <t>for 1.5 ng</t>
+  </si>
+  <si>
+    <t>1. Make MEM SV40 mixtures (5 of them) and distribute 42 per well as indicated</t>
+  </si>
+  <si>
+    <t>M10 total for fill</t>
+  </si>
+  <si>
+    <t>H3A</t>
+  </si>
+  <si>
+    <t>PLATE 7</t>
+  </si>
+  <si>
+    <t>PLATE 8</t>
+  </si>
+  <si>
+    <t>hTAAR5</t>
+  </si>
+  <si>
+    <t>H3A TMA Dilution- 2 plates</t>
   </si>
 </sst>
 </file>
@@ -7234,23 +7280,46 @@
     <row r="142" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="X113:X120"/>
-    <mergeCell ref="R113:R120"/>
-    <mergeCell ref="S113:S120"/>
-    <mergeCell ref="T113:T120"/>
-    <mergeCell ref="U113:U120"/>
-    <mergeCell ref="V113:V120"/>
-    <mergeCell ref="W113:W120"/>
-    <mergeCell ref="T103:T110"/>
-    <mergeCell ref="U103:U110"/>
-    <mergeCell ref="V103:V110"/>
-    <mergeCell ref="W103:W110"/>
-    <mergeCell ref="X103:X110"/>
-    <mergeCell ref="M113:M120"/>
-    <mergeCell ref="N113:N120"/>
-    <mergeCell ref="O113:O120"/>
-    <mergeCell ref="P113:P120"/>
-    <mergeCell ref="Q113:Q120"/>
+    <mergeCell ref="Q33:Q40"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="M33:M40"/>
+    <mergeCell ref="N33:N40"/>
+    <mergeCell ref="O33:O40"/>
+    <mergeCell ref="P33:P40"/>
+    <mergeCell ref="R33:R40"/>
+    <mergeCell ref="S33:S40"/>
+    <mergeCell ref="X33:X40"/>
+    <mergeCell ref="W33:W40"/>
+    <mergeCell ref="V33:V40"/>
+    <mergeCell ref="U33:U40"/>
+    <mergeCell ref="T33:T40"/>
+    <mergeCell ref="X43:X50"/>
+    <mergeCell ref="M43:M50"/>
+    <mergeCell ref="N43:N50"/>
+    <mergeCell ref="O43:O50"/>
+    <mergeCell ref="P43:P50"/>
+    <mergeCell ref="Q43:Q50"/>
+    <mergeCell ref="R43:R50"/>
+    <mergeCell ref="S43:S50"/>
+    <mergeCell ref="T43:T50"/>
+    <mergeCell ref="U43:U50"/>
+    <mergeCell ref="V43:V50"/>
+    <mergeCell ref="W43:W50"/>
+    <mergeCell ref="U53:U60"/>
+    <mergeCell ref="V53:V60"/>
+    <mergeCell ref="W53:W60"/>
+    <mergeCell ref="X53:X60"/>
+    <mergeCell ref="M53:M60"/>
+    <mergeCell ref="N53:N60"/>
+    <mergeCell ref="O53:O60"/>
+    <mergeCell ref="P53:P60"/>
+    <mergeCell ref="Q53:Q60"/>
+    <mergeCell ref="R53:R60"/>
+    <mergeCell ref="M93:M100"/>
+    <mergeCell ref="N93:N100"/>
+    <mergeCell ref="O93:O100"/>
+    <mergeCell ref="S53:S60"/>
+    <mergeCell ref="T53:T60"/>
     <mergeCell ref="V93:V100"/>
     <mergeCell ref="W93:W100"/>
     <mergeCell ref="X93:X100"/>
@@ -7267,22 +7336,5991 @@
     <mergeCell ref="S93:S100"/>
     <mergeCell ref="T93:T100"/>
     <mergeCell ref="U93:U100"/>
-    <mergeCell ref="M93:M100"/>
-    <mergeCell ref="N93:N100"/>
-    <mergeCell ref="O93:O100"/>
-    <mergeCell ref="S53:S60"/>
+    <mergeCell ref="M113:M120"/>
+    <mergeCell ref="N113:N120"/>
+    <mergeCell ref="O113:O120"/>
+    <mergeCell ref="P113:P120"/>
+    <mergeCell ref="Q113:Q120"/>
+    <mergeCell ref="T103:T110"/>
+    <mergeCell ref="U103:U110"/>
+    <mergeCell ref="V103:V110"/>
+    <mergeCell ref="W103:W110"/>
+    <mergeCell ref="X103:X110"/>
+    <mergeCell ref="X113:X120"/>
+    <mergeCell ref="R113:R120"/>
+    <mergeCell ref="S113:S120"/>
+    <mergeCell ref="T113:T120"/>
+    <mergeCell ref="U113:U120"/>
+    <mergeCell ref="V113:V120"/>
+    <mergeCell ref="W113:W120"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="44" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="7.33203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="165"/>
+      <c r="F3" t="s">
+        <v>259</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="27">
+        <v>15</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="28">
+        <f>((A5*10 + (A5*10*0.1))/100)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G5" s="25">
+        <f>((B5*10 + (B5*10*0.1))/100)</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H5" s="25">
+        <f>((C5*10 + (C5*10*0.1))/100)</f>
+        <v>1.65</v>
+      </c>
+      <c r="I5" s="26">
+        <f>($U$8-SUM(F5:H5))</f>
+        <v>43.578333333333333</v>
+      </c>
+      <c r="J5" s="25">
+        <v>42</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="Z5" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB5" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC5" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="27">
+        <v>20</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" ref="F6:H68" si="0">((A6*10 + (A6*10*0.1))/100)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" ref="I6:I44" si="1">($U$8-SUM(F6:H6))</f>
+        <v>43.028333333333336</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="M6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="37">
+        <v>450</v>
+      </c>
+      <c r="O6" s="37">
+        <f>N6*8</f>
+        <v>3600</v>
+      </c>
+      <c r="P6" s="25">
+        <f>O6+(O6*0.1)</f>
+        <v>3960</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="9">
+        <v>10</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="Z6" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="52">
+        <v>500</v>
+      </c>
+      <c r="AD6" s="53">
+        <f>AC6*AD$5</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="27">
+        <v>25</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="1"/>
+        <v>42.478333333333339</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="M7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="37">
+        <f>N6/25</f>
+        <v>18</v>
+      </c>
+      <c r="O7" s="37">
+        <f>N7*8</f>
+        <v>144</v>
+      </c>
+      <c r="P7" s="25">
+        <f>O7+(O7*0.1)</f>
+        <v>158.4</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="10"/>
+      <c r="Z7" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA7" s="51">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="37">
+        <f>AA7/100*96</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="AC7" s="52">
+        <f>AB7</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="AD7" s="53">
+        <f>AC7*AD$5</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="27">
+        <v>30</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="1"/>
+        <v>41.928333333333335</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="R8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="12">
+        <f>50/12</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="T8" s="13">
+        <f>S8*8</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="U8" s="16">
+        <f>((S8*U6)*0.1)+(S8*U6)</f>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="V8" s="10"/>
+      <c r="Z8" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="51">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="37">
+        <f>AA8/100*96</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="AC8" s="52">
+        <f>AB8</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="AD8" s="53">
+        <f>AC8*AD$5</f>
+        <v>19.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="27">
+        <v>35</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="1"/>
+        <v>41.378333333333337</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="R9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="12">
+        <f>50/12</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="T9" s="13">
+        <f>S9*8</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="U9" s="18">
+        <f>((S9*U6)*0.1)+(S9*U6)</f>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="V9" s="10"/>
+      <c r="Z9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="51">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="37">
+        <f>AA9/100*96</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="AC9" s="52">
+        <f>AB9</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="AD9" s="53">
+        <f>AC9*AD$5</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="27">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="1"/>
+        <v>43.550833333333337</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="R10" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="60">
+        <f>500/12</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="T10" s="61">
+        <f>S10*8</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="U10" s="62">
+        <f>((S10*U6)*0.1)+(S10*U6)</f>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z10" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA10" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="AB10" s="57">
+        <f>AA10/100*96</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AC10" s="58">
+        <f>AB10</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AD10" s="53">
+        <f>AC10*AD$5</f>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>5</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="27">
+        <v>20</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="1"/>
+        <v>43.000833333333333</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="R11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="12">
+        <f>S10/2</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="T11" s="13">
+        <f>S11*8</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="U11" s="22">
+        <f>((S11*U6)*0.1)+(S11*U6)</f>
+        <v>229.16666666666666</v>
+      </c>
+      <c r="V11" s="10">
+        <f>U11*(8*8)</f>
+        <v>14666.666666666666</v>
+      </c>
+      <c r="Z11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="27">
+        <v>25</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="1"/>
+        <v>42.450833333333335</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="Z12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="37">
+        <v>450</v>
+      </c>
+      <c r="AB12" s="37">
+        <f>AA12*AD5</f>
+        <v>900</v>
+      </c>
+      <c r="AC12" s="126"/>
+    </row>
+    <row r="13" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>5</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="27">
+        <v>30</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="32">
+        <v>2</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I13" s="26">
+        <f t="shared" si="1"/>
+        <v>41.900833333333338</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="U13" s="20">
+        <f>SUM(U8:U11)</f>
+        <v>779.16666666666663</v>
+      </c>
+      <c r="Z13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13" s="37">
+        <f>AA12/25</f>
+        <v>18</v>
+      </c>
+      <c r="AB13" s="37">
+        <f>AA13*AD5</f>
+        <v>36</v>
+      </c>
+      <c r="AC13" s="126"/>
+    </row>
+    <row r="14" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>5</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="27">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I14" s="26">
+        <f t="shared" si="1"/>
+        <v>41.350833333333334</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>5</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C15" s="27">
+        <v>15</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="32">
+        <v>2</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I15" s="26">
+        <f t="shared" si="1"/>
+        <v>43.495833333333337</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="L15" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>96</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>5</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C16" s="27">
+        <v>20</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="32">
+        <v>2</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I16" s="26">
+        <f t="shared" si="1"/>
+        <v>42.945833333333333</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="L16" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AB16" s="13">
+        <f>AA16*8</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC16" s="14">
+        <f>((AA16*AC15)*0.1)+(AA16*AC15)</f>
+        <v>5.2800000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>5</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C17" s="27">
+        <v>25</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="32">
+        <v>2</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" si="1"/>
+        <v>42.395833333333336</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="L17" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="12">
+        <f>50/12</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AB17" s="13">
+        <f>AA17*8</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AC17" s="16">
+        <f>((AA17*AC15)*0.1)+(AA17*AC15)</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C18" s="27">
+        <v>30</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="32">
+        <v>2</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I18" s="26">
+        <f t="shared" si="1"/>
+        <v>41.845833333333339</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="L18" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="12">
+        <f>50/12</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AB18" s="13">
+        <f>AA18*8</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AC18" s="18">
+        <f>((AA18*AC15)*0.1)+(AA18*AC15)</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>5</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C19" s="27">
+        <v>35</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="32">
+        <v>2</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="1"/>
+        <v>41.295833333333334</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="M19" t="s">
+        <v>246</v>
+      </c>
+      <c r="S19">
+        <v>25.83</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA19" s="60">
+        <f>500/12</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="AB19" s="61">
+        <f>AA19*8</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="AC19" s="62">
+        <f>((AA19*AC15)*0.1)+(AA19*AC15)</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>5</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="27">
+        <v>15</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="32">
+        <v>2</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I20" s="26">
+        <f t="shared" si="1"/>
+        <v>43.468333333333334</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20" s="12">
+        <f>AA19/2</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="AB20" s="13">
+        <f>AA20*8</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="AC20" s="22">
+        <f>((AA20*AC15)*0.1)+(AA20*AC15)</f>
+        <v>2200</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>5</v>
+      </c>
+      <c r="B21" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="27">
+        <v>20</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="32">
+        <v>3</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I21" s="26">
+        <f t="shared" si="1"/>
+        <v>42.918333333333337</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <v>5</v>
+      </c>
+      <c r="B22" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="27">
+        <v>25</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="32">
+        <v>3</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I22" s="26">
+        <f t="shared" si="1"/>
+        <v>42.368333333333339</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>5</v>
+      </c>
+      <c r="B23" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="27">
+        <v>30</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="32">
+        <v>3</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I23" s="26">
+        <f t="shared" si="1"/>
+        <v>41.818333333333335</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>5</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="27">
+        <v>35</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="32">
+        <v>3</v>
+      </c>
+      <c r="F24" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I24" s="26">
+        <f t="shared" si="1"/>
+        <v>41.268333333333338</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="L24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="27">
+        <v>15</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="32">
+        <v>3</v>
+      </c>
+      <c r="F25" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I25" s="26">
+        <f t="shared" si="1"/>
+        <v>43.028333333333336</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>10</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="27">
+        <v>20</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="32">
+        <v>3</v>
+      </c>
+      <c r="F26" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I26" s="26">
+        <f t="shared" si="1"/>
+        <v>42.478333333333339</v>
+      </c>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <v>10</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="27">
+        <v>25</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="32">
+        <v>3</v>
+      </c>
+      <c r="F27" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I27" s="26">
+        <f t="shared" si="1"/>
+        <v>41.928333333333335</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>10</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="27">
+        <v>30</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="32">
+        <v>3</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H28" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I28" s="26">
+        <f t="shared" si="1"/>
+        <v>41.378333333333337</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="M28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <v>10</v>
+      </c>
+      <c r="B29" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="27">
+        <v>35</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="32">
+        <v>4</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I29" s="26">
+        <f t="shared" si="1"/>
+        <v>40.828333333333333</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="M29" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>10</v>
+      </c>
+      <c r="B30" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="27">
+        <v>15</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="32">
+        <v>4</v>
+      </c>
+      <c r="F30" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I30" s="26">
+        <f t="shared" si="1"/>
+        <v>43.000833333333333</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="AC30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>10</v>
+      </c>
+      <c r="B31" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="27">
+        <v>20</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="32">
+        <v>4</v>
+      </c>
+      <c r="F31" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I31" s="26">
+        <f t="shared" si="1"/>
+        <v>42.450833333333335</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="L31" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>10</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="27">
+        <v>25</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I32" s="26">
+        <f t="shared" si="1"/>
+        <v>41.900833333333338</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="40">
+        <v>1</v>
+      </c>
+      <c r="N32" s="40">
+        <v>2</v>
+      </c>
+      <c r="O32" s="40">
+        <v>3</v>
+      </c>
+      <c r="P32" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>5</v>
+      </c>
+      <c r="R32" s="40">
+        <v>6</v>
+      </c>
+      <c r="S32" s="40">
+        <v>7</v>
+      </c>
+      <c r="T32" s="40">
+        <v>8</v>
+      </c>
+      <c r="U32" s="40">
+        <v>9</v>
+      </c>
+      <c r="V32" s="40">
+        <v>10</v>
+      </c>
+      <c r="W32" s="40">
+        <v>11</v>
+      </c>
+      <c r="X32" s="41">
+        <v>12</v>
+      </c>
+      <c r="Z32" s="158"/>
+      <c r="AC32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
+        <v>10</v>
+      </c>
+      <c r="B33" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="27">
+        <v>30</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="32">
+        <v>4</v>
+      </c>
+      <c r="F33" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I33" s="26">
+        <f t="shared" si="1"/>
+        <v>41.350833333333334</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="L33" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="162">
+        <v>1</v>
+      </c>
+      <c r="N33" s="162">
+        <v>2</v>
+      </c>
+      <c r="O33" s="162">
+        <v>3</v>
+      </c>
+      <c r="P33" s="162">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="162">
+        <v>5</v>
+      </c>
+      <c r="R33" s="162">
+        <v>6</v>
+      </c>
+      <c r="S33" s="162">
+        <v>7</v>
+      </c>
+      <c r="T33" s="162">
+        <v>8</v>
+      </c>
+      <c r="U33" s="162">
+        <v>1</v>
+      </c>
+      <c r="V33" s="162">
+        <v>2</v>
+      </c>
+      <c r="W33" s="162">
+        <v>3</v>
+      </c>
+      <c r="X33" s="162">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="158"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>10</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="27">
+        <v>35</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="32">
+        <v>4</v>
+      </c>
+      <c r="F34" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I34" s="26">
+        <f t="shared" si="1"/>
+        <v>40.800833333333337</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="L34" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="163"/>
+      <c r="S34" s="163"/>
+      <c r="T34" s="163"/>
+      <c r="U34" s="163"/>
+      <c r="V34" s="163"/>
+      <c r="W34" s="163"/>
+      <c r="X34" s="163"/>
+      <c r="Z34" s="158"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>10</v>
+      </c>
+      <c r="B35" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C35" s="27">
+        <v>15</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="32">
+        <v>4</v>
+      </c>
+      <c r="F35" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H35" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="1"/>
+        <v>42.945833333333333</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="L35" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="163"/>
+      <c r="R35" s="163"/>
+      <c r="S35" s="163"/>
+      <c r="T35" s="163"/>
+      <c r="U35" s="163"/>
+      <c r="V35" s="163"/>
+      <c r="W35" s="163"/>
+      <c r="X35" s="163"/>
+      <c r="Z35" s="158"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>10</v>
+      </c>
+      <c r="B36" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C36" s="27">
+        <v>20</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="32">
+        <v>4</v>
+      </c>
+      <c r="F36" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H36" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I36" s="26">
+        <f t="shared" si="1"/>
+        <v>42.395833333333336</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="L36" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
+      <c r="O36" s="163"/>
+      <c r="P36" s="163"/>
+      <c r="Q36" s="163"/>
+      <c r="R36" s="163"/>
+      <c r="S36" s="163"/>
+      <c r="T36" s="163"/>
+      <c r="U36" s="163"/>
+      <c r="V36" s="163"/>
+      <c r="W36" s="163"/>
+      <c r="X36" s="163"/>
+      <c r="Z36" s="158"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>10</v>
+      </c>
+      <c r="B37" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C37" s="27">
+        <v>25</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="32">
+        <v>5</v>
+      </c>
+      <c r="F37" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H37" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I37" s="26">
+        <f t="shared" si="1"/>
+        <v>41.845833333333339</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="L37" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="163"/>
+      <c r="N37" s="163"/>
+      <c r="O37" s="163"/>
+      <c r="P37" s="163"/>
+      <c r="Q37" s="163"/>
+      <c r="R37" s="163"/>
+      <c r="S37" s="163"/>
+      <c r="T37" s="163"/>
+      <c r="U37" s="163"/>
+      <c r="V37" s="163"/>
+      <c r="W37" s="163"/>
+      <c r="X37" s="163"/>
+      <c r="Z37" s="158"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="25">
+        <v>10</v>
+      </c>
+      <c r="B38" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C38" s="27">
+        <v>30</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="32">
+        <v>5</v>
+      </c>
+      <c r="F38" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H38" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" si="1"/>
+        <v>41.295833333333334</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="L38" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="163"/>
+      <c r="N38" s="163"/>
+      <c r="O38" s="163"/>
+      <c r="P38" s="163"/>
+      <c r="Q38" s="163"/>
+      <c r="R38" s="163"/>
+      <c r="S38" s="163"/>
+      <c r="T38" s="163"/>
+      <c r="U38" s="163"/>
+      <c r="V38" s="163"/>
+      <c r="W38" s="163"/>
+      <c r="X38" s="163"/>
+      <c r="Z38" s="158" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <v>10</v>
+      </c>
+      <c r="B39" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C39" s="27">
+        <v>35</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="32">
+        <v>5</v>
+      </c>
+      <c r="F39" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G39" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H39" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" si="1"/>
+        <v>40.745833333333337</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="L39" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="163"/>
+      <c r="P39" s="163"/>
+      <c r="Q39" s="163"/>
+      <c r="R39" s="163"/>
+      <c r="S39" s="163"/>
+      <c r="T39" s="163"/>
+      <c r="U39" s="163"/>
+      <c r="V39" s="163"/>
+      <c r="W39" s="163"/>
+      <c r="X39" s="163"/>
+      <c r="Z39" s="158"/>
+    </row>
+    <row r="40" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>10</v>
+      </c>
+      <c r="B40" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C40" s="27">
+        <v>15</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="32">
+        <v>5</v>
+      </c>
+      <c r="F40" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G40" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H40" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="1"/>
+        <v>42.918333333333337</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="L40" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="164"/>
+      <c r="R40" s="164"/>
+      <c r="S40" s="164"/>
+      <c r="T40" s="164"/>
+      <c r="U40" s="164"/>
+      <c r="V40" s="164"/>
+      <c r="W40" s="164"/>
+      <c r="X40" s="164"/>
+      <c r="Z40" s="158"/>
+    </row>
+    <row r="41" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>10</v>
+      </c>
+      <c r="B41" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C41" s="27">
+        <v>20</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="32">
+        <v>5</v>
+      </c>
+      <c r="F41" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G41" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H41" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="1"/>
+        <v>42.368333333333332</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="L41" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z41" s="158"/>
+    </row>
+    <row r="42" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>10</v>
+      </c>
+      <c r="B42" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C42" s="27">
+        <v>25</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="32">
+        <v>5</v>
+      </c>
+      <c r="F42" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G42" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H42" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I42" s="26">
+        <f t="shared" si="1"/>
+        <v>41.818333333333335</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="40">
+        <v>1</v>
+      </c>
+      <c r="N42" s="40">
+        <v>2</v>
+      </c>
+      <c r="O42" s="40">
+        <v>3</v>
+      </c>
+      <c r="P42" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="40">
+        <v>5</v>
+      </c>
+      <c r="R42" s="40">
+        <v>6</v>
+      </c>
+      <c r="S42" s="40">
+        <v>7</v>
+      </c>
+      <c r="T42" s="40">
+        <v>8</v>
+      </c>
+      <c r="U42" s="40">
+        <v>9</v>
+      </c>
+      <c r="V42" s="40">
+        <v>10</v>
+      </c>
+      <c r="W42" s="40">
+        <v>11</v>
+      </c>
+      <c r="X42" s="41">
+        <v>12</v>
+      </c>
+      <c r="Z42" s="158"/>
+    </row>
+    <row r="43" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <v>10</v>
+      </c>
+      <c r="B43" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C43" s="27">
+        <v>30</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="32">
+        <v>5</v>
+      </c>
+      <c r="F43" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G43" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H43" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I43" s="26">
+        <f t="shared" si="1"/>
+        <v>41.268333333333338</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="L43" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="162">
+        <v>5</v>
+      </c>
+      <c r="N43" s="162">
+        <v>6</v>
+      </c>
+      <c r="O43" s="162">
+        <v>7</v>
+      </c>
+      <c r="P43" s="162">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="162">
+        <v>1</v>
+      </c>
+      <c r="R43" s="162">
+        <v>2</v>
+      </c>
+      <c r="S43" s="162">
+        <v>3</v>
+      </c>
+      <c r="T43" s="162">
+        <v>4</v>
+      </c>
+      <c r="U43" s="162">
+        <v>5</v>
+      </c>
+      <c r="V43" s="162">
+        <v>6</v>
+      </c>
+      <c r="W43" s="162">
+        <v>7</v>
+      </c>
+      <c r="X43" s="162">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="158"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C44" s="27">
+        <v>35</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="32">
+        <v>5</v>
+      </c>
+      <c r="F44" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G44" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H44" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I44" s="26">
+        <f t="shared" si="1"/>
+        <v>40.718333333333334</v>
+      </c>
+      <c r="J44" s="25"/>
+      <c r="L44" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="163"/>
+      <c r="P44" s="163"/>
+      <c r="Q44" s="163"/>
+      <c r="R44" s="163"/>
+      <c r="S44" s="163"/>
+      <c r="T44" s="163"/>
+      <c r="U44" s="163"/>
+      <c r="V44" s="163"/>
+      <c r="W44" s="163"/>
+      <c r="X44" s="163"/>
+      <c r="Z44" s="158"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <v>15</v>
+      </c>
+      <c r="B45" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="27">
+        <v>15</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="32">
+        <v>6</v>
+      </c>
+      <c r="F45" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G45" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H45" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I45" s="26">
+        <f t="shared" ref="I45:I68" si="2">($U$8-SUM(F45:H45))</f>
+        <v>42.478333333333339</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="L45" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="163"/>
+      <c r="N45" s="163"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="163"/>
+      <c r="Q45" s="163"/>
+      <c r="R45" s="163"/>
+      <c r="S45" s="163"/>
+      <c r="T45" s="163"/>
+      <c r="U45" s="163"/>
+      <c r="V45" s="163"/>
+      <c r="W45" s="163"/>
+      <c r="X45" s="163"/>
+      <c r="Z45" s="158"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="25">
+        <v>15</v>
+      </c>
+      <c r="B46" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="27">
+        <v>20</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="32">
+        <v>6</v>
+      </c>
+      <c r="F46" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G46" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H46" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I46" s="26">
+        <f t="shared" si="2"/>
+        <v>41.928333333333335</v>
+      </c>
+      <c r="J46" s="25"/>
+      <c r="L46" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="163"/>
+      <c r="N46" s="163"/>
+      <c r="O46" s="163"/>
+      <c r="P46" s="163"/>
+      <c r="Q46" s="163"/>
+      <c r="R46" s="163"/>
+      <c r="S46" s="163"/>
+      <c r="T46" s="163"/>
+      <c r="U46" s="163"/>
+      <c r="V46" s="163"/>
+      <c r="W46" s="163"/>
+      <c r="X46" s="163"/>
+      <c r="Z46" s="158"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="25">
+        <v>15</v>
+      </c>
+      <c r="B47" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="27">
+        <v>25</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="32">
+        <v>6</v>
+      </c>
+      <c r="F47" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G47" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H47" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I47" s="26">
+        <f t="shared" si="2"/>
+        <v>41.378333333333337</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="L47" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="163"/>
+      <c r="N47" s="163"/>
+      <c r="O47" s="163"/>
+      <c r="P47" s="163"/>
+      <c r="Q47" s="163"/>
+      <c r="R47" s="163"/>
+      <c r="S47" s="163"/>
+      <c r="T47" s="163"/>
+      <c r="U47" s="163"/>
+      <c r="V47" s="163"/>
+      <c r="W47" s="163"/>
+      <c r="X47" s="163"/>
+      <c r="Z47" s="158"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="25">
+        <v>15</v>
+      </c>
+      <c r="B48" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="27">
+        <v>30</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="32">
+        <v>6</v>
+      </c>
+      <c r="F48" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G48" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H48" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I48" s="26">
+        <f t="shared" si="2"/>
+        <v>40.828333333333333</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="L48" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="163"/>
+      <c r="N48" s="163"/>
+      <c r="O48" s="163"/>
+      <c r="P48" s="163"/>
+      <c r="Q48" s="163"/>
+      <c r="R48" s="163"/>
+      <c r="S48" s="163"/>
+      <c r="T48" s="163"/>
+      <c r="U48" s="163"/>
+      <c r="V48" s="163"/>
+      <c r="W48" s="163"/>
+      <c r="X48" s="163"/>
+      <c r="Z48" s="158"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="25">
+        <v>15</v>
+      </c>
+      <c r="B49" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="27">
+        <v>35</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="32">
+        <v>6</v>
+      </c>
+      <c r="F49" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G49" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H49" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="2"/>
+        <v>40.278333333333336</v>
+      </c>
+      <c r="J49" s="25"/>
+      <c r="L49" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="163"/>
+      <c r="N49" s="163"/>
+      <c r="O49" s="163"/>
+      <c r="P49" s="163"/>
+      <c r="Q49" s="163"/>
+      <c r="R49" s="163"/>
+      <c r="S49" s="163"/>
+      <c r="T49" s="163"/>
+      <c r="U49" s="163"/>
+      <c r="V49" s="163"/>
+      <c r="W49" s="163"/>
+      <c r="X49" s="163"/>
+      <c r="Z49" s="158"/>
+    </row>
+    <row r="50" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>15</v>
+      </c>
+      <c r="B50" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C50" s="27">
+        <v>15</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="32">
+        <v>6</v>
+      </c>
+      <c r="F50" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G50" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H50" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I50" s="26">
+        <f t="shared" si="2"/>
+        <v>42.450833333333335</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="L50" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="164"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="164"/>
+      <c r="P50" s="164"/>
+      <c r="Q50" s="164"/>
+      <c r="R50" s="164"/>
+      <c r="S50" s="164"/>
+      <c r="T50" s="164"/>
+      <c r="U50" s="164"/>
+      <c r="V50" s="164"/>
+      <c r="W50" s="164"/>
+      <c r="X50" s="164"/>
+      <c r="Z50" s="158"/>
+    </row>
+    <row r="51" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>15</v>
+      </c>
+      <c r="B51" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="27">
+        <v>20</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="32">
+        <v>6</v>
+      </c>
+      <c r="F51" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G51" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H51" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I51" s="26">
+        <f t="shared" si="2"/>
+        <v>41.900833333333338</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="L51" s="157" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <v>15</v>
+      </c>
+      <c r="B52" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C52" s="27">
+        <v>25</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="32">
+        <v>6</v>
+      </c>
+      <c r="F52" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G52" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H52" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I52" s="26">
+        <f t="shared" si="2"/>
+        <v>41.350833333333334</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="40">
+        <v>1</v>
+      </c>
+      <c r="N52" s="40">
+        <v>2</v>
+      </c>
+      <c r="O52" s="40">
+        <v>3</v>
+      </c>
+      <c r="P52" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="40">
+        <v>5</v>
+      </c>
+      <c r="R52" s="40">
+        <v>6</v>
+      </c>
+      <c r="S52" s="40">
+        <v>7</v>
+      </c>
+      <c r="T52" s="40">
+        <v>8</v>
+      </c>
+      <c r="U52" s="40">
+        <v>9</v>
+      </c>
+      <c r="V52" s="40">
+        <v>10</v>
+      </c>
+      <c r="W52" s="40">
+        <v>11</v>
+      </c>
+      <c r="X52" s="41">
+        <v>12</v>
+      </c>
+      <c r="Z52" s="158"/>
+    </row>
+    <row r="53" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25">
+        <v>15</v>
+      </c>
+      <c r="B53" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C53" s="27">
+        <v>30</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="32">
+        <v>7</v>
+      </c>
+      <c r="F53" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G53" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H53" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I53" s="26">
+        <f t="shared" si="2"/>
+        <v>40.800833333333337</v>
+      </c>
+      <c r="J53" s="25"/>
+      <c r="L53" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="162">
+        <v>1</v>
+      </c>
+      <c r="N53" s="162">
+        <v>2</v>
+      </c>
+      <c r="O53" s="162">
+        <v>3</v>
+      </c>
+      <c r="P53" s="162">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="162">
+        <v>5</v>
+      </c>
+      <c r="R53" s="162">
+        <v>6</v>
+      </c>
+      <c r="S53" s="162">
+        <v>7</v>
+      </c>
+      <c r="T53" s="162">
+        <v>8</v>
+      </c>
+      <c r="U53" s="162">
+        <v>1</v>
+      </c>
+      <c r="V53" s="162">
+        <v>2</v>
+      </c>
+      <c r="W53" s="162">
+        <v>3</v>
+      </c>
+      <c r="X53" s="162">
+        <v>4</v>
+      </c>
+      <c r="Z53" s="158"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" s="25">
+        <v>15</v>
+      </c>
+      <c r="B54" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C54" s="27">
+        <v>35</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="32">
+        <v>7</v>
+      </c>
+      <c r="F54" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G54" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H54" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I54" s="26">
+        <f t="shared" si="2"/>
+        <v>40.250833333333333</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="L54" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="163"/>
+      <c r="N54" s="163"/>
+      <c r="O54" s="163"/>
+      <c r="P54" s="163"/>
+      <c r="Q54" s="163"/>
+      <c r="R54" s="163"/>
+      <c r="S54" s="163"/>
+      <c r="T54" s="163"/>
+      <c r="U54" s="163"/>
+      <c r="V54" s="163"/>
+      <c r="W54" s="163"/>
+      <c r="X54" s="163"/>
+      <c r="Z54" s="158"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A55" s="25">
+        <v>15</v>
+      </c>
+      <c r="B55" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C55" s="27">
+        <v>15</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="32">
+        <v>7</v>
+      </c>
+      <c r="F55" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G55" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H55" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I55" s="26">
+        <f t="shared" si="2"/>
+        <v>42.395833333333336</v>
+      </c>
+      <c r="J55" s="25"/>
+      <c r="L55" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="163"/>
+      <c r="N55" s="163"/>
+      <c r="O55" s="163"/>
+      <c r="P55" s="163"/>
+      <c r="Q55" s="163"/>
+      <c r="R55" s="163"/>
+      <c r="S55" s="163"/>
+      <c r="T55" s="163"/>
+      <c r="U55" s="163"/>
+      <c r="V55" s="163"/>
+      <c r="W55" s="163"/>
+      <c r="X55" s="163"/>
+      <c r="Z55" s="158"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" s="25">
+        <v>15</v>
+      </c>
+      <c r="B56" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C56" s="27">
+        <v>20</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="32">
+        <v>7</v>
+      </c>
+      <c r="F56" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G56" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H56" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I56" s="26">
+        <f t="shared" si="2"/>
+        <v>41.845833333333339</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="L56" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="163"/>
+      <c r="N56" s="163"/>
+      <c r="O56" s="163"/>
+      <c r="P56" s="163"/>
+      <c r="Q56" s="163"/>
+      <c r="R56" s="163"/>
+      <c r="S56" s="163"/>
+      <c r="T56" s="163"/>
+      <c r="U56" s="163"/>
+      <c r="V56" s="163"/>
+      <c r="W56" s="163"/>
+      <c r="X56" s="163"/>
+      <c r="Z56" s="158"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" s="25">
+        <v>15</v>
+      </c>
+      <c r="B57" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C57" s="27">
+        <v>25</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="32">
+        <v>7</v>
+      </c>
+      <c r="F57" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G57" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H57" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I57" s="26">
+        <f t="shared" si="2"/>
+        <v>41.295833333333334</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="L57" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="163"/>
+      <c r="N57" s="163"/>
+      <c r="O57" s="163"/>
+      <c r="P57" s="163"/>
+      <c r="Q57" s="163"/>
+      <c r="R57" s="163"/>
+      <c r="S57" s="163"/>
+      <c r="T57" s="163"/>
+      <c r="U57" s="163"/>
+      <c r="V57" s="163"/>
+      <c r="W57" s="163"/>
+      <c r="X57" s="163"/>
+      <c r="Z57" s="158"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" s="25">
+        <v>15</v>
+      </c>
+      <c r="B58" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C58" s="27">
+        <v>30</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="32">
+        <v>7</v>
+      </c>
+      <c r="F58" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G58" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H58" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I58" s="26">
+        <f t="shared" si="2"/>
+        <v>40.745833333333337</v>
+      </c>
+      <c r="J58" s="25"/>
+      <c r="L58" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
+      <c r="O58" s="163"/>
+      <c r="P58" s="163"/>
+      <c r="Q58" s="163"/>
+      <c r="R58" s="163"/>
+      <c r="S58" s="163"/>
+      <c r="T58" s="163"/>
+      <c r="U58" s="163"/>
+      <c r="V58" s="163"/>
+      <c r="W58" s="163"/>
+      <c r="X58" s="163"/>
+      <c r="Z58" s="158"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A59" s="25">
+        <v>15</v>
+      </c>
+      <c r="B59" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="C59" s="27">
+        <v>35</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="32">
+        <v>7</v>
+      </c>
+      <c r="F59" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G59" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H59" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I59" s="26">
+        <f t="shared" si="2"/>
+        <v>40.195833333333333</v>
+      </c>
+      <c r="J59" s="25"/>
+      <c r="L59" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="163"/>
+      <c r="N59" s="163"/>
+      <c r="O59" s="163"/>
+      <c r="P59" s="163"/>
+      <c r="Q59" s="163"/>
+      <c r="R59" s="163"/>
+      <c r="S59" s="163"/>
+      <c r="T59" s="163"/>
+      <c r="U59" s="163"/>
+      <c r="V59" s="163"/>
+      <c r="W59" s="163"/>
+      <c r="X59" s="163"/>
+      <c r="Z59" s="158"/>
+    </row>
+    <row r="60" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25">
+        <v>15</v>
+      </c>
+      <c r="B60" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C60" s="27">
+        <v>15</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="32">
+        <v>7</v>
+      </c>
+      <c r="F60" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G60" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H60" s="25">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="I60" s="26">
+        <f t="shared" si="2"/>
+        <v>42.368333333333339</v>
+      </c>
+      <c r="J60" s="25"/>
+      <c r="L60" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="164"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="164"/>
+      <c r="P60" s="164"/>
+      <c r="Q60" s="164"/>
+      <c r="R60" s="164"/>
+      <c r="S60" s="164"/>
+      <c r="T60" s="164"/>
+      <c r="U60" s="164"/>
+      <c r="V60" s="164"/>
+      <c r="W60" s="164"/>
+      <c r="X60" s="164"/>
+      <c r="Z60" s="158" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
+        <v>15</v>
+      </c>
+      <c r="B61" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C61" s="27">
+        <v>20</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="32">
+        <v>8</v>
+      </c>
+      <c r="F61" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G61" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H61" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I61" s="26">
+        <f t="shared" si="2"/>
+        <v>41.818333333333335</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="L61" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z61" s="158"/>
+    </row>
+    <row r="62" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <v>15</v>
+      </c>
+      <c r="B62" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C62" s="27">
+        <v>25</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="32">
+        <v>8</v>
+      </c>
+      <c r="F62" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G62" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H62" s="25">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I62" s="26">
+        <f t="shared" si="2"/>
+        <v>41.268333333333338</v>
+      </c>
+      <c r="J62" s="25"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="40">
+        <v>1</v>
+      </c>
+      <c r="N62" s="40">
+        <v>2</v>
+      </c>
+      <c r="O62" s="40">
+        <v>3</v>
+      </c>
+      <c r="P62" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="40">
+        <v>5</v>
+      </c>
+      <c r="R62" s="40">
+        <v>6</v>
+      </c>
+      <c r="S62" s="40">
+        <v>7</v>
+      </c>
+      <c r="T62" s="40">
+        <v>8</v>
+      </c>
+      <c r="U62" s="40">
+        <v>9</v>
+      </c>
+      <c r="V62" s="40">
+        <v>10</v>
+      </c>
+      <c r="W62" s="40">
+        <v>11</v>
+      </c>
+      <c r="X62" s="41">
+        <v>12</v>
+      </c>
+      <c r="Z62" s="158"/>
+    </row>
+    <row r="63" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="25">
+        <v>15</v>
+      </c>
+      <c r="B63" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C63" s="27">
+        <v>30</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="32">
+        <v>8</v>
+      </c>
+      <c r="F63" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G63" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H63" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I63" s="26">
+        <f t="shared" si="2"/>
+        <v>40.718333333333334</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="L63" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="162">
+        <v>5</v>
+      </c>
+      <c r="N63" s="162">
+        <v>6</v>
+      </c>
+      <c r="O63" s="162">
+        <v>7</v>
+      </c>
+      <c r="P63" s="162">
+        <v>8</v>
+      </c>
+      <c r="Q63" s="162">
+        <v>1</v>
+      </c>
+      <c r="R63" s="162">
+        <v>2</v>
+      </c>
+      <c r="S63" s="162">
+        <v>3</v>
+      </c>
+      <c r="T63" s="162">
+        <v>4</v>
+      </c>
+      <c r="U63" s="162">
+        <v>5</v>
+      </c>
+      <c r="V63" s="162">
+        <v>6</v>
+      </c>
+      <c r="W63" s="162">
+        <v>7</v>
+      </c>
+      <c r="X63" s="162">
+        <v>8</v>
+      </c>
+      <c r="Z63" s="158"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" s="25">
+        <v>15</v>
+      </c>
+      <c r="B64" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C64" s="27">
+        <v>35</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="32">
+        <v>8</v>
+      </c>
+      <c r="F64" s="28">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="G64" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H64" s="25">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="I64" s="26">
+        <f t="shared" si="2"/>
+        <v>40.168333333333337</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="L64" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="163"/>
+      <c r="N64" s="163"/>
+      <c r="O64" s="163"/>
+      <c r="P64" s="163"/>
+      <c r="Q64" s="163"/>
+      <c r="R64" s="163"/>
+      <c r="S64" s="163"/>
+      <c r="T64" s="163"/>
+      <c r="U64" s="163"/>
+      <c r="V64" s="163"/>
+      <c r="W64" s="163"/>
+      <c r="X64" s="163"/>
+      <c r="Z64" s="158"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="25">
+        <v>5</v>
+      </c>
+      <c r="B65" s="25">
+        <v>5</v>
+      </c>
+      <c r="C65" s="27">
+        <v>10</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="32">
+        <v>8</v>
+      </c>
+      <c r="F65" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G65" s="25">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H65" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I65" s="26">
+        <f t="shared" si="2"/>
+        <v>43.633333333333333</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="L65" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="163"/>
+      <c r="N65" s="163"/>
+      <c r="O65" s="163"/>
+      <c r="P65" s="163"/>
+      <c r="Q65" s="163"/>
+      <c r="R65" s="163"/>
+      <c r="S65" s="163"/>
+      <c r="T65" s="163"/>
+      <c r="U65" s="163"/>
+      <c r="V65" s="163"/>
+      <c r="W65" s="163"/>
+      <c r="X65" s="163"/>
+      <c r="Z65" s="158"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" s="25">
+        <v>5</v>
+      </c>
+      <c r="B66" s="25">
+        <v>5</v>
+      </c>
+      <c r="C66" s="27">
+        <v>10</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="32">
+        <v>8</v>
+      </c>
+      <c r="F66" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G66" s="25">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H66" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I66" s="26">
+        <f t="shared" si="2"/>
+        <v>43.633333333333333</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="L66" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" s="163"/>
+      <c r="N66" s="163"/>
+      <c r="O66" s="163"/>
+      <c r="P66" s="163"/>
+      <c r="Q66" s="163"/>
+      <c r="R66" s="163"/>
+      <c r="S66" s="163"/>
+      <c r="T66" s="163"/>
+      <c r="U66" s="163"/>
+      <c r="V66" s="163"/>
+      <c r="W66" s="163"/>
+      <c r="X66" s="163"/>
+      <c r="Z66" s="158"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>5</v>
+      </c>
+      <c r="B67" s="25">
+        <v>5</v>
+      </c>
+      <c r="C67" s="27">
+        <v>10</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="32">
+        <v>8</v>
+      </c>
+      <c r="F67" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G67" s="25">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H67" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I67" s="26">
+        <f t="shared" si="2"/>
+        <v>43.633333333333333</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="L67" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="163"/>
+      <c r="N67" s="163"/>
+      <c r="O67" s="163"/>
+      <c r="P67" s="163"/>
+      <c r="Q67" s="163"/>
+      <c r="R67" s="163"/>
+      <c r="S67" s="163"/>
+      <c r="T67" s="163"/>
+      <c r="U67" s="163"/>
+      <c r="V67" s="163"/>
+      <c r="W67" s="163"/>
+      <c r="X67" s="163"/>
+      <c r="Z67" s="158"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>5</v>
+      </c>
+      <c r="B68" s="25">
+        <v>5</v>
+      </c>
+      <c r="C68" s="27">
+        <v>10</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="32">
+        <v>8</v>
+      </c>
+      <c r="F68" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G68" s="25">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H68" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I68" s="26">
+        <f t="shared" si="2"/>
+        <v>43.633333333333333</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="L68" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="163"/>
+      <c r="N68" s="163"/>
+      <c r="O68" s="163"/>
+      <c r="P68" s="163"/>
+      <c r="Q68" s="163"/>
+      <c r="R68" s="163"/>
+      <c r="S68" s="163"/>
+      <c r="T68" s="163"/>
+      <c r="U68" s="163"/>
+      <c r="V68" s="163"/>
+      <c r="W68" s="163"/>
+      <c r="X68" s="163"/>
+      <c r="Z68" s="158"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" s="20">
+        <f>AVERAGE(I5:I68)</f>
+        <v>41.983333333333327</v>
+      </c>
+      <c r="L69" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="163"/>
+      <c r="N69" s="163"/>
+      <c r="O69" s="163"/>
+      <c r="P69" s="163"/>
+      <c r="Q69" s="163"/>
+      <c r="R69" s="163"/>
+      <c r="S69" s="163"/>
+      <c r="T69" s="163"/>
+      <c r="U69" s="163"/>
+      <c r="V69" s="163"/>
+      <c r="W69" s="163"/>
+      <c r="X69" s="163"/>
+      <c r="Z69" s="158"/>
+    </row>
+    <row r="70" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>COUNT(A5:A68)</f>
+        <v>64</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="I70" s="20">
+        <f>MAX(I5:I68)</f>
+        <v>43.633333333333333</v>
+      </c>
+      <c r="J70" s="20">
+        <f>I70-I69</f>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="K70" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" s="164"/>
+      <c r="N70" s="164"/>
+      <c r="O70" s="164"/>
+      <c r="P70" s="164"/>
+      <c r="Q70" s="164"/>
+      <c r="R70" s="164"/>
+      <c r="S70" s="164"/>
+      <c r="T70" s="164"/>
+      <c r="U70" s="164"/>
+      <c r="V70" s="164"/>
+      <c r="W70" s="164"/>
+      <c r="X70" s="164"/>
+      <c r="Z70" s="158"/>
+    </row>
+    <row r="71" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="1"/>
+      <c r="L71" s="157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="1"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="40">
+        <v>1</v>
+      </c>
+      <c r="N72" s="40">
+        <v>2</v>
+      </c>
+      <c r="O72" s="40">
+        <v>3</v>
+      </c>
+      <c r="P72" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="40">
+        <v>5</v>
+      </c>
+      <c r="R72" s="40">
+        <v>6</v>
+      </c>
+      <c r="S72" s="40">
+        <v>7</v>
+      </c>
+      <c r="T72" s="40">
+        <v>8</v>
+      </c>
+      <c r="U72" s="40">
+        <v>9</v>
+      </c>
+      <c r="V72" s="40">
+        <v>10</v>
+      </c>
+      <c r="W72" s="40">
+        <v>11</v>
+      </c>
+      <c r="X72" s="41">
+        <v>12</v>
+      </c>
+      <c r="Z72" s="158"/>
+    </row>
+    <row r="73" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="131"/>
+      <c r="J73" s="1"/>
+      <c r="L73" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="162">
+        <v>1</v>
+      </c>
+      <c r="N73" s="162">
+        <v>2</v>
+      </c>
+      <c r="O73" s="162">
+        <v>3</v>
+      </c>
+      <c r="P73" s="162">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="162">
+        <v>5</v>
+      </c>
+      <c r="R73" s="162">
+        <v>6</v>
+      </c>
+      <c r="S73" s="162">
+        <v>7</v>
+      </c>
+      <c r="T73" s="162">
+        <v>8</v>
+      </c>
+      <c r="U73" s="162">
+        <v>1</v>
+      </c>
+      <c r="V73" s="162">
+        <v>2</v>
+      </c>
+      <c r="W73" s="162">
+        <v>3</v>
+      </c>
+      <c r="X73" s="162">
+        <v>4</v>
+      </c>
+      <c r="Z73" s="158"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="74">
+        <v>0.75</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="131"/>
+      <c r="J74" s="1"/>
+      <c r="L74" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" s="163"/>
+      <c r="N74" s="163"/>
+      <c r="O74" s="163"/>
+      <c r="P74" s="163"/>
+      <c r="Q74" s="163"/>
+      <c r="R74" s="163"/>
+      <c r="S74" s="163"/>
+      <c r="T74" s="163"/>
+      <c r="U74" s="163"/>
+      <c r="V74" s="163"/>
+      <c r="W74" s="163"/>
+      <c r="X74" s="163"/>
+      <c r="Z74" s="158"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="1">
+        <f>J5</f>
+        <v>42</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="G75" s="1">
+        <f>J5</f>
+        <v>42</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="1"/>
+      <c r="L75" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" s="163"/>
+      <c r="N75" s="163"/>
+      <c r="O75" s="163"/>
+      <c r="P75" s="163"/>
+      <c r="Q75" s="163"/>
+      <c r="R75" s="163"/>
+      <c r="S75" s="163"/>
+      <c r="T75" s="163"/>
+      <c r="U75" s="163"/>
+      <c r="V75" s="163"/>
+      <c r="W75" s="163"/>
+      <c r="X75" s="163"/>
+      <c r="Z75" s="158"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G76" s="1">
+        <v>15</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="1"/>
+      <c r="L76" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M76" s="163"/>
+      <c r="N76" s="163"/>
+      <c r="O76" s="163"/>
+      <c r="P76" s="163"/>
+      <c r="Q76" s="163"/>
+      <c r="R76" s="163"/>
+      <c r="S76" s="163"/>
+      <c r="T76" s="163"/>
+      <c r="U76" s="163"/>
+      <c r="V76" s="163"/>
+      <c r="W76" s="163"/>
+      <c r="X76" s="163"/>
+      <c r="Z76" s="158"/>
+    </row>
+    <row r="77" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="1">
+        <f>G6</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G77" s="1">
+        <f>G12</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" s="131"/>
+      <c r="J77" s="1"/>
+      <c r="L77" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="163"/>
+      <c r="N77" s="163"/>
+      <c r="O77" s="163"/>
+      <c r="P77" s="163"/>
+      <c r="Q77" s="163"/>
+      <c r="R77" s="163"/>
+      <c r="S77" s="163"/>
+      <c r="T77" s="163"/>
+      <c r="U77" s="163"/>
+      <c r="V77" s="163"/>
+      <c r="W77" s="163"/>
+      <c r="X77" s="163"/>
+      <c r="Z77" s="158"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="1">
+        <f>B76*B77</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C78" s="159">
+        <f>B78+(B78*0.1)</f>
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="D78" s="89"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" s="1">
+        <f>G77*G76</f>
+        <v>1.2375</v>
+      </c>
+      <c r="H78" s="159">
+        <f>G78+(G78*0.1)</f>
+        <v>1.3612500000000001</v>
+      </c>
+      <c r="I78" s="131"/>
+      <c r="J78" s="1"/>
+      <c r="L78" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" s="163"/>
+      <c r="N78" s="163"/>
+      <c r="O78" s="163"/>
+      <c r="P78" s="163"/>
+      <c r="Q78" s="163"/>
+      <c r="R78" s="163"/>
+      <c r="S78" s="163"/>
+      <c r="T78" s="163"/>
+      <c r="U78" s="163"/>
+      <c r="V78" s="163"/>
+      <c r="W78" s="163"/>
+      <c r="X78" s="163"/>
+      <c r="Z78" s="158"/>
+    </row>
+    <row r="79" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" s="1">
+        <f>B75*B76</f>
+        <v>630</v>
+      </c>
+      <c r="C79" s="160">
+        <f>B79 + (B79*0.1)</f>
+        <v>693</v>
+      </c>
+      <c r="D79" s="89"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="G79" s="1">
+        <f>G75*G76</f>
+        <v>630</v>
+      </c>
+      <c r="H79" s="160">
+        <f>G79 + (G79*0.1)</f>
+        <v>693</v>
+      </c>
+      <c r="I79" s="131"/>
+      <c r="J79" s="1"/>
+      <c r="L79" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="163"/>
+      <c r="N79" s="163"/>
+      <c r="O79" s="163"/>
+      <c r="P79" s="163"/>
+      <c r="Q79" s="163"/>
+      <c r="R79" s="163"/>
+      <c r="S79" s="163"/>
+      <c r="T79" s="163"/>
+      <c r="U79" s="163"/>
+      <c r="V79" s="163"/>
+      <c r="W79" s="163"/>
+      <c r="X79" s="163"/>
+      <c r="Z79" s="158"/>
+    </row>
+    <row r="80" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="131"/>
+      <c r="J80" s="1"/>
+      <c r="L80" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="164"/>
+      <c r="N80" s="164"/>
+      <c r="O80" s="164"/>
+      <c r="P80" s="164"/>
+      <c r="Q80" s="164"/>
+      <c r="R80" s="164"/>
+      <c r="S80" s="164"/>
+      <c r="T80" s="164"/>
+      <c r="U80" s="164"/>
+      <c r="V80" s="164"/>
+      <c r="W80" s="164"/>
+      <c r="X80" s="164"/>
+      <c r="Z80" s="158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="74">
+        <v>1.25</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="131"/>
+      <c r="J81" s="1"/>
+      <c r="L81" s="157" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z81" s="158"/>
+    </row>
+    <row r="82" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" s="1">
+        <f>J5</f>
+        <v>42</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" s="1">
+        <f>J5</f>
+        <v>42</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="1"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="40">
+        <v>1</v>
+      </c>
+      <c r="N82" s="40">
+        <v>2</v>
+      </c>
+      <c r="O82" s="40">
+        <v>3</v>
+      </c>
+      <c r="P82" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="40">
+        <v>5</v>
+      </c>
+      <c r="R82" s="40">
+        <v>6</v>
+      </c>
+      <c r="S82" s="40">
+        <v>7</v>
+      </c>
+      <c r="T82" s="40">
+        <v>8</v>
+      </c>
+      <c r="U82" s="40">
+        <v>9</v>
+      </c>
+      <c r="V82" s="40">
+        <v>10</v>
+      </c>
+      <c r="W82" s="40">
+        <v>11</v>
+      </c>
+      <c r="X82" s="41">
+        <v>12</v>
+      </c>
+      <c r="Z82" s="158"/>
+    </row>
+    <row r="83" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="1">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" s="1">
+        <v>15</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="131"/>
+      <c r="J83" s="1"/>
+      <c r="L83" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" s="162">
+        <v>5</v>
+      </c>
+      <c r="N83" s="162">
+        <v>6</v>
+      </c>
+      <c r="O83" s="162">
+        <v>7</v>
+      </c>
+      <c r="P83" s="162">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="162">
+        <v>1</v>
+      </c>
+      <c r="R83" s="162">
+        <v>2</v>
+      </c>
+      <c r="S83" s="162">
+        <v>3</v>
+      </c>
+      <c r="T83" s="162">
+        <v>4</v>
+      </c>
+      <c r="U83" s="162">
+        <v>5</v>
+      </c>
+      <c r="V83" s="162">
+        <v>6</v>
+      </c>
+      <c r="W83" s="162">
+        <v>7</v>
+      </c>
+      <c r="X83" s="162">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="158"/>
+    </row>
+    <row r="84" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" s="1">
+        <f>G17</f>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" s="89"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G84" s="1">
+        <f>G20</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I84" s="131"/>
+      <c r="J84" s="1"/>
+      <c r="L84" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="163"/>
+      <c r="N84" s="163"/>
+      <c r="O84" s="163"/>
+      <c r="P84" s="163"/>
+      <c r="Q84" s="163"/>
+      <c r="R84" s="163"/>
+      <c r="S84" s="163"/>
+      <c r="T84" s="163"/>
+      <c r="U84" s="163"/>
+      <c r="V84" s="163"/>
+      <c r="W84" s="163"/>
+      <c r="X84" s="163"/>
+      <c r="Z84" s="158"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="1">
+        <f>B84*B83</f>
+        <v>2.0625</v>
+      </c>
+      <c r="C85" s="159">
+        <f>B85+(B85*0.1)</f>
+        <v>2.2687499999999998</v>
+      </c>
+      <c r="D85" s="89"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" s="1">
+        <f>G84*G83</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H85" s="159">
+        <f>G85+(G85*0.1)</f>
+        <v>2.7225000000000001</v>
+      </c>
+      <c r="I85" s="131"/>
+      <c r="J85" s="1"/>
+      <c r="L85" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="163"/>
+      <c r="N85" s="163"/>
+      <c r="O85" s="163"/>
+      <c r="P85" s="163"/>
+      <c r="Q85" s="163"/>
+      <c r="R85" s="163"/>
+      <c r="S85" s="163"/>
+      <c r="T85" s="163"/>
+      <c r="U85" s="163"/>
+      <c r="V85" s="163"/>
+      <c r="W85" s="163"/>
+      <c r="X85" s="163"/>
+      <c r="Z85" s="158"/>
+    </row>
+    <row r="86" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="1">
+        <f>B82*B83</f>
+        <v>630</v>
+      </c>
+      <c r="C86" s="160">
+        <f>B86 + (B86*0.1)</f>
+        <v>693</v>
+      </c>
+      <c r="F86" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="G86" s="1">
+        <f>G82*G83</f>
+        <v>630</v>
+      </c>
+      <c r="H86" s="160">
+        <f>G86 + (G86*0.1)</f>
+        <v>693</v>
+      </c>
+      <c r="L86" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" s="163"/>
+      <c r="N86" s="163"/>
+      <c r="O86" s="163"/>
+      <c r="P86" s="163"/>
+      <c r="Q86" s="163"/>
+      <c r="R86" s="163"/>
+      <c r="S86" s="163"/>
+      <c r="T86" s="163"/>
+      <c r="U86" s="163"/>
+      <c r="V86" s="163"/>
+      <c r="W86" s="163"/>
+      <c r="X86" s="163"/>
+      <c r="Z86" s="158"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L87" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="163"/>
+      <c r="N87" s="163"/>
+      <c r="O87" s="163"/>
+      <c r="P87" s="163"/>
+      <c r="Q87" s="163"/>
+      <c r="R87" s="163"/>
+      <c r="S87" s="163"/>
+      <c r="T87" s="163"/>
+      <c r="U87" s="163"/>
+      <c r="V87" s="163"/>
+      <c r="W87" s="163"/>
+      <c r="X87" s="163"/>
+      <c r="Z87" s="158"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" s="74"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="F88" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="L88" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" s="163"/>
+      <c r="N88" s="163"/>
+      <c r="O88" s="163"/>
+      <c r="P88" s="163"/>
+      <c r="Q88" s="163"/>
+      <c r="R88" s="163"/>
+      <c r="S88" s="163"/>
+      <c r="T88" s="163"/>
+      <c r="U88" s="163"/>
+      <c r="V88" s="163"/>
+      <c r="W88" s="163"/>
+      <c r="X88" s="163"/>
+      <c r="Z88" s="158"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="74"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="F89" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="G89" s="1">
+        <f>J5</f>
+        <v>42</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="L89" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="163"/>
+      <c r="N89" s="163"/>
+      <c r="O89" s="163"/>
+      <c r="P89" s="163"/>
+      <c r="Q89" s="163"/>
+      <c r="R89" s="163"/>
+      <c r="S89" s="163"/>
+      <c r="T89" s="163"/>
+      <c r="U89" s="163"/>
+      <c r="V89" s="163"/>
+      <c r="W89" s="163"/>
+      <c r="X89" s="163"/>
+      <c r="Z89" s="158"/>
+    </row>
+    <row r="90" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="74"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="F90" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G90" s="1">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="L90" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="164"/>
+      <c r="N90" s="164"/>
+      <c r="O90" s="164"/>
+      <c r="P90" s="164"/>
+      <c r="Q90" s="164"/>
+      <c r="R90" s="164"/>
+      <c r="S90" s="164"/>
+      <c r="T90" s="164"/>
+      <c r="U90" s="164"/>
+      <c r="V90" s="164"/>
+      <c r="W90" s="164"/>
+      <c r="X90" s="164"/>
+      <c r="Z90" s="158"/>
+    </row>
+    <row r="91" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="74"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="F91" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G91" s="1">
+        <f>G66</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" s="74"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="159"/>
+      <c r="F92" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="1">
+        <f>G91*G90</f>
+        <v>5.5</v>
+      </c>
+      <c r="H92" s="159">
+        <f>G92+(G92*0.1)</f>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="74"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="160"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="G93" s="1">
+        <f>G89*G90</f>
+        <v>420</v>
+      </c>
+      <c r="H93" s="160">
+        <f>G93 + (G93*0.1)</f>
+        <v>462</v>
+      </c>
+      <c r="N93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="N94" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="40">
+        <v>1</v>
+      </c>
+      <c r="P95" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="40">
+        <v>3</v>
+      </c>
+      <c r="R95" s="40">
+        <v>4</v>
+      </c>
+      <c r="S95" s="40">
+        <v>5</v>
+      </c>
+      <c r="T95" s="40">
+        <v>6</v>
+      </c>
+      <c r="U95" s="40">
+        <v>7</v>
+      </c>
+      <c r="V95" s="40">
+        <v>8</v>
+      </c>
+      <c r="W95" s="40">
+        <v>9</v>
+      </c>
+      <c r="X95" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y95" s="40">
+        <v>11</v>
+      </c>
+      <c r="Z95" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="N96" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O96" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="P96" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q96" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="R96" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="S96" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="T96" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="U96" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="V96" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="W96" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="X96" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y96" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z96" s="162" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="J97" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="K97" s="66">
+        <v>830</v>
+      </c>
+      <c r="L97" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="N97" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O97" s="163"/>
+      <c r="P97" s="163"/>
+      <c r="Q97" s="163"/>
+      <c r="R97" s="163"/>
+      <c r="S97" s="163"/>
+      <c r="T97" s="163"/>
+      <c r="U97" s="163"/>
+      <c r="V97" s="163"/>
+      <c r="W97" s="163"/>
+      <c r="X97" s="163"/>
+      <c r="Y97" s="163"/>
+      <c r="Z97" s="163"/>
+    </row>
+    <row r="98" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="74"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="10"/>
+      <c r="J98" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="K98" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="L98" s="70"/>
+      <c r="N98" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O98" s="163"/>
+      <c r="P98" s="163"/>
+      <c r="Q98" s="163"/>
+      <c r="R98" s="163"/>
+      <c r="S98" s="163"/>
+      <c r="T98" s="163"/>
+      <c r="U98" s="163"/>
+      <c r="V98" s="163"/>
+      <c r="W98" s="163"/>
+      <c r="X98" s="163"/>
+      <c r="Y98" s="163"/>
+      <c r="Z98" s="163"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="83"/>
+      <c r="G99" t="s">
+        <v>138</v>
+      </c>
+      <c r="J99" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="N99" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" s="163"/>
+      <c r="P99" s="163"/>
+      <c r="Q99" s="163"/>
+      <c r="R99" s="163"/>
+      <c r="S99" s="163"/>
+      <c r="T99" s="163"/>
+      <c r="U99" s="163"/>
+      <c r="V99" s="163"/>
+      <c r="W99" s="163"/>
+      <c r="X99" s="163"/>
+      <c r="Y99" s="163"/>
+      <c r="Z99" s="163"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" s="84"/>
+      <c r="B100" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="85"/>
+      <c r="J100" s="72">
+        <v>817</v>
+      </c>
+      <c r="K100" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="L100" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="N100" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O100" s="163"/>
+      <c r="P100" s="163"/>
+      <c r="Q100" s="163"/>
+      <c r="R100" s="163"/>
+      <c r="S100" s="163"/>
+      <c r="T100" s="163"/>
+      <c r="U100" s="163"/>
+      <c r="V100" s="163"/>
+      <c r="W100" s="163"/>
+      <c r="X100" s="163"/>
+      <c r="Y100" s="163"/>
+      <c r="Z100" s="163"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A101" s="84"/>
+      <c r="B101" s="77">
+        <v>12</v>
+      </c>
+      <c r="C101" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="85"/>
+      <c r="N101" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O101" s="163"/>
+      <c r="P101" s="163"/>
+      <c r="Q101" s="163"/>
+      <c r="R101" s="163"/>
+      <c r="S101" s="163"/>
+      <c r="T101" s="163"/>
+      <c r="U101" s="163"/>
+      <c r="V101" s="163"/>
+      <c r="W101" s="163"/>
+      <c r="X101" s="163"/>
+      <c r="Y101" s="163"/>
+      <c r="Z101" s="163"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A102" s="84"/>
+      <c r="B102" s="77">
+        <v>2</v>
+      </c>
+      <c r="C102" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="85"/>
+      <c r="N102" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O102" s="163"/>
+      <c r="P102" s="163"/>
+      <c r="Q102" s="163"/>
+      <c r="R102" s="163"/>
+      <c r="S102" s="163"/>
+      <c r="T102" s="163"/>
+      <c r="U102" s="163"/>
+      <c r="V102" s="163"/>
+      <c r="W102" s="163"/>
+      <c r="X102" s="163"/>
+      <c r="Y102" s="163"/>
+      <c r="Z102" s="163"/>
+    </row>
+    <row r="103" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="84"/>
+      <c r="B103" s="72">
+        <f>25*B102*B101</f>
+        <v>600</v>
+      </c>
+      <c r="C103" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="85"/>
+      <c r="N103" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O103" s="164"/>
+      <c r="P103" s="164"/>
+      <c r="Q103" s="164"/>
+      <c r="R103" s="164"/>
+      <c r="S103" s="164"/>
+      <c r="T103" s="164"/>
+      <c r="U103" s="164"/>
+      <c r="V103" s="164"/>
+      <c r="W103" s="164"/>
+      <c r="X103" s="164"/>
+      <c r="Y103" s="164"/>
+      <c r="Z103" s="164"/>
+    </row>
+    <row r="104" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="84"/>
+      <c r="B104" s="72">
+        <f>(B103+0.2*B103)*1.5</f>
+        <v>1080</v>
+      </c>
+      <c r="C104" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="85"/>
+      <c r="N104" s="157" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="84"/>
+      <c r="B105" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="N105" s="39"/>
+      <c r="O105" s="40">
+        <v>1</v>
+      </c>
+      <c r="P105" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="40">
+        <v>3</v>
+      </c>
+      <c r="R105" s="40">
+        <v>4</v>
+      </c>
+      <c r="S105" s="40">
+        <v>5</v>
+      </c>
+      <c r="T105" s="40">
+        <v>6</v>
+      </c>
+      <c r="U105" s="40">
+        <v>7</v>
+      </c>
+      <c r="V105" s="40">
+        <v>8</v>
+      </c>
+      <c r="W105" s="40">
+        <v>9</v>
+      </c>
+      <c r="X105" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y105" s="40">
+        <v>11</v>
+      </c>
+      <c r="Z105" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A106" s="84"/>
+      <c r="B106" s="72">
+        <f>F106*E106/C106/1000</f>
+        <v>1.08</v>
+      </c>
+      <c r="C106" s="77">
+        <v>1000</v>
+      </c>
+      <c r="D106" s="72">
+        <f>F106-B106</f>
+        <v>1078.92</v>
+      </c>
+      <c r="E106" s="77">
+        <v>1000</v>
+      </c>
+      <c r="F106" s="85">
+        <f>B104</f>
+        <v>1080</v>
+      </c>
+      <c r="N106" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O106" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="P106" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q106" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="R106" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="S106" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="T106" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="U106" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="V106" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="W106" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="X106" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y106" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z106" s="162" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A107" s="84"/>
+      <c r="B107" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="72"/>
+      <c r="F107" s="85"/>
+      <c r="N107" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O107" s="163"/>
+      <c r="P107" s="163"/>
+      <c r="Q107" s="163"/>
+      <c r="R107" s="163"/>
+      <c r="S107" s="163"/>
+      <c r="T107" s="163"/>
+      <c r="U107" s="163"/>
+      <c r="V107" s="163"/>
+      <c r="W107" s="163"/>
+      <c r="X107" s="163"/>
+      <c r="Y107" s="163"/>
+      <c r="Z107" s="163"/>
+    </row>
+    <row r="108" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="86"/>
+      <c r="B108" s="87">
+        <f>F106/3</f>
+        <v>360</v>
+      </c>
+      <c r="C108" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" s="87">
+        <f>F106*2/3</f>
+        <v>720</v>
+      </c>
+      <c r="E108" s="87"/>
+      <c r="F108" s="88"/>
+      <c r="I108" t="s">
+        <v>250</v>
+      </c>
+      <c r="N108" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O108" s="163"/>
+      <c r="P108" s="163"/>
+      <c r="Q108" s="163"/>
+      <c r="R108" s="163"/>
+      <c r="S108" s="163"/>
+      <c r="T108" s="163"/>
+      <c r="U108" s="163"/>
+      <c r="V108" s="163"/>
+      <c r="W108" s="163"/>
+      <c r="X108" s="163"/>
+      <c r="Y108" s="163"/>
+      <c r="Z108" s="163"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <f>96*2</f>
+        <v>192</v>
+      </c>
+      <c r="N109" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O109" s="163"/>
+      <c r="P109" s="163"/>
+      <c r="Q109" s="163"/>
+      <c r="R109" s="163"/>
+      <c r="S109" s="163"/>
+      <c r="T109" s="163"/>
+      <c r="U109" s="163"/>
+      <c r="V109" s="163"/>
+      <c r="W109" s="163"/>
+      <c r="X109" s="163"/>
+      <c r="Y109" s="163"/>
+      <c r="Z109" s="163"/>
+    </row>
+    <row r="110" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>137</v>
+      </c>
+      <c r="N110" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O110" s="163"/>
+      <c r="P110" s="163"/>
+      <c r="Q110" s="163"/>
+      <c r="R110" s="163"/>
+      <c r="S110" s="163"/>
+      <c r="T110" s="163"/>
+      <c r="U110" s="163"/>
+      <c r="V110" s="163"/>
+      <c r="W110" s="163"/>
+      <c r="X110" s="163"/>
+      <c r="Y110" s="163"/>
+      <c r="Z110" s="163"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A111" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="83"/>
+      <c r="N111" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" s="163"/>
+      <c r="P111" s="163"/>
+      <c r="Q111" s="163"/>
+      <c r="R111" s="163"/>
+      <c r="S111" s="163"/>
+      <c r="T111" s="163"/>
+      <c r="U111" s="163"/>
+      <c r="V111" s="163"/>
+      <c r="W111" s="163"/>
+      <c r="X111" s="163"/>
+      <c r="Y111" s="163"/>
+      <c r="Z111" s="163"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A112" s="84"/>
+      <c r="B112" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="85"/>
+      <c r="N112" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O112" s="163"/>
+      <c r="P112" s="163"/>
+      <c r="Q112" s="163"/>
+      <c r="R112" s="163"/>
+      <c r="S112" s="163"/>
+      <c r="T112" s="163"/>
+      <c r="U112" s="163"/>
+      <c r="V112" s="163"/>
+      <c r="W112" s="163"/>
+      <c r="X112" s="163"/>
+      <c r="Y112" s="163"/>
+      <c r="Z112" s="163"/>
+    </row>
+    <row r="113" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="84"/>
+      <c r="B113" s="77">
+        <v>192</v>
+      </c>
+      <c r="C113" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="85"/>
+      <c r="N113" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O113" s="164"/>
+      <c r="P113" s="164"/>
+      <c r="Q113" s="164"/>
+      <c r="R113" s="164"/>
+      <c r="S113" s="164"/>
+      <c r="T113" s="164"/>
+      <c r="U113" s="164"/>
+      <c r="V113" s="164"/>
+      <c r="W113" s="164"/>
+      <c r="X113" s="164"/>
+      <c r="Y113" s="164"/>
+      <c r="Z113" s="164"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A114" s="84"/>
+      <c r="B114" s="72">
+        <f>25*B113</f>
+        <v>4800</v>
+      </c>
+      <c r="C114" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="85"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A115" s="84"/>
+      <c r="B115" s="72">
+        <f>(B114+0.2*B114)*2</f>
+        <v>11520</v>
+      </c>
+      <c r="C115" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="85"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A116" s="84"/>
+      <c r="B116" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F116" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A117" s="84"/>
+      <c r="B117" s="72">
+        <f>F117*E117/C117/1000</f>
+        <v>3.456</v>
+      </c>
+      <c r="C117" s="77">
+        <v>1000</v>
+      </c>
+      <c r="D117" s="72">
+        <f>F117-B117</f>
+        <v>11516.544</v>
+      </c>
+      <c r="E117" s="77">
+        <v>300</v>
+      </c>
+      <c r="F117" s="85">
+        <f>B115</f>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A118" s="84"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="91"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A119" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="91"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A120" s="84"/>
+      <c r="B120" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="85"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A121" s="84"/>
+      <c r="B121" s="77">
+        <v>192</v>
+      </c>
+      <c r="C121" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="85"/>
+    </row>
+    <row r="122" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="84"/>
+      <c r="B122" s="72">
+        <f>25*B121</f>
+        <v>4800</v>
+      </c>
+      <c r="C122" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="85"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A123" s="84"/>
+      <c r="B123" s="72">
+        <f>(B122+0.2*B122)*2</f>
+        <v>11520</v>
+      </c>
+      <c r="C123" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="85"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A124" s="84"/>
+      <c r="B124" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A125" s="84"/>
+      <c r="B125" s="72">
+        <f>F125*E125/C125</f>
+        <v>3840</v>
+      </c>
+      <c r="C125" s="77">
+        <v>300</v>
+      </c>
+      <c r="D125" s="72">
+        <f>F125-B125</f>
+        <v>7680</v>
+      </c>
+      <c r="E125" s="77">
+        <v>100</v>
+      </c>
+      <c r="F125" s="85">
+        <f>B123</f>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A126" s="84"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="89"/>
+      <c r="E126" s="90"/>
+      <c r="F126" s="91"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A127" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="89"/>
+      <c r="E127" s="90"/>
+      <c r="F127" s="91"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A128" s="84"/>
+      <c r="B128" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="85"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="84"/>
+      <c r="B129" s="77">
+        <v>192</v>
+      </c>
+      <c r="C129" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="85"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="84"/>
+      <c r="B130" s="72">
+        <f>25*B129</f>
+        <v>4800</v>
+      </c>
+      <c r="C130" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="85"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="84"/>
+      <c r="B131" s="72">
+        <f>(B130+0.2*B130)*2</f>
+        <v>11520</v>
+      </c>
+      <c r="C131" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="85"/>
+    </row>
+    <row r="132" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="84"/>
+      <c r="B132" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="86"/>
+      <c r="B133" s="87">
+        <f>F133*E133/C133</f>
+        <v>3456</v>
+      </c>
+      <c r="C133" s="93">
+        <v>100</v>
+      </c>
+      <c r="D133" s="87">
+        <f>F133-B133</f>
+        <v>8064</v>
+      </c>
+      <c r="E133" s="93">
+        <v>30</v>
+      </c>
+      <c r="F133" s="88">
+        <f>B131</f>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+    </row>
+    <row r="140" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="39"/>
+      <c r="B141" s="40">
+        <v>1</v>
+      </c>
+      <c r="C141" s="40">
+        <v>2</v>
+      </c>
+      <c r="D141" s="40">
+        <v>3</v>
+      </c>
+      <c r="E141" s="40">
+        <v>4</v>
+      </c>
+      <c r="F141" s="40">
+        <v>5</v>
+      </c>
+      <c r="G141" s="40">
+        <v>6</v>
+      </c>
+      <c r="H141" s="40">
+        <v>7</v>
+      </c>
+      <c r="I141" s="40">
+        <v>8</v>
+      </c>
+      <c r="J141" s="40">
+        <v>9</v>
+      </c>
+      <c r="K141" s="40">
+        <v>10</v>
+      </c>
+      <c r="L141" s="40">
+        <v>11</v>
+      </c>
+      <c r="M141" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="E142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="G142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="H142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="I142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="J142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="K142" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="L142" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="M142" s="162" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="163"/>
+      <c r="C143" s="163"/>
+      <c r="D143" s="163"/>
+      <c r="E143" s="163"/>
+      <c r="F143" s="163"/>
+      <c r="G143" s="163"/>
+      <c r="H143" s="163"/>
+      <c r="I143" s="163"/>
+      <c r="J143" s="163"/>
+      <c r="K143" s="163"/>
+      <c r="L143" s="163"/>
+      <c r="M143" s="163"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="163"/>
+      <c r="C144" s="163"/>
+      <c r="D144" s="163"/>
+      <c r="E144" s="163"/>
+      <c r="F144" s="163"/>
+      <c r="G144" s="163"/>
+      <c r="H144" s="163"/>
+      <c r="I144" s="163"/>
+      <c r="J144" s="163"/>
+      <c r="K144" s="163"/>
+      <c r="L144" s="163"/>
+      <c r="M144" s="163"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="163"/>
+      <c r="C145" s="163"/>
+      <c r="D145" s="163"/>
+      <c r="E145" s="163"/>
+      <c r="F145" s="163"/>
+      <c r="G145" s="163"/>
+      <c r="H145" s="163"/>
+      <c r="I145" s="163"/>
+      <c r="J145" s="163"/>
+      <c r="K145" s="163"/>
+      <c r="L145" s="163"/>
+      <c r="M145" s="163"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="163"/>
+      <c r="C146" s="163"/>
+      <c r="D146" s="163"/>
+      <c r="E146" s="163"/>
+      <c r="F146" s="163"/>
+      <c r="G146" s="163"/>
+      <c r="H146" s="163"/>
+      <c r="I146" s="163"/>
+      <c r="J146" s="163"/>
+      <c r="K146" s="163"/>
+      <c r="L146" s="163"/>
+      <c r="M146" s="163"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="163"/>
+      <c r="C147" s="163"/>
+      <c r="D147" s="163"/>
+      <c r="E147" s="163"/>
+      <c r="F147" s="163"/>
+      <c r="G147" s="163"/>
+      <c r="H147" s="163"/>
+      <c r="I147" s="163"/>
+      <c r="J147" s="163"/>
+      <c r="K147" s="163"/>
+      <c r="L147" s="163"/>
+      <c r="M147" s="163"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="163"/>
+      <c r="C148" s="163"/>
+      <c r="D148" s="163"/>
+      <c r="E148" s="163"/>
+      <c r="F148" s="163"/>
+      <c r="G148" s="163"/>
+      <c r="H148" s="163"/>
+      <c r="I148" s="163"/>
+      <c r="J148" s="163"/>
+      <c r="K148" s="163"/>
+      <c r="L148" s="163"/>
+      <c r="M148" s="163"/>
+    </row>
+    <row r="149" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="164"/>
+      <c r="C149" s="164"/>
+      <c r="D149" s="164"/>
+      <c r="E149" s="164"/>
+      <c r="F149" s="164"/>
+      <c r="G149" s="164"/>
+      <c r="H149" s="164"/>
+      <c r="I149" s="164"/>
+      <c r="J149" s="164"/>
+      <c r="K149" s="164"/>
+      <c r="L149" s="164"/>
+      <c r="M149" s="164"/>
+    </row>
+    <row r="150" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D150"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="39"/>
+      <c r="B151" s="40">
+        <v>1</v>
+      </c>
+      <c r="C151" s="40">
+        <v>2</v>
+      </c>
+      <c r="D151" s="40">
+        <v>3</v>
+      </c>
+      <c r="E151" s="40">
+        <v>4</v>
+      </c>
+      <c r="F151" s="40">
+        <v>5</v>
+      </c>
+      <c r="G151" s="40">
+        <v>6</v>
+      </c>
+      <c r="H151" s="40">
+        <v>7</v>
+      </c>
+      <c r="I151" s="40">
+        <v>8</v>
+      </c>
+      <c r="J151" s="40">
+        <v>9</v>
+      </c>
+      <c r="K151" s="40">
+        <v>10</v>
+      </c>
+      <c r="L151" s="40">
+        <v>11</v>
+      </c>
+      <c r="M151" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="C152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="D152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="E152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="F152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="G152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="H152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="I152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="J152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="K152" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="L152" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="M152" s="162" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="163"/>
+      <c r="C153" s="163"/>
+      <c r="D153" s="163"/>
+      <c r="E153" s="163"/>
+      <c r="F153" s="163"/>
+      <c r="G153" s="163"/>
+      <c r="H153" s="163"/>
+      <c r="I153" s="163"/>
+      <c r="J153" s="163"/>
+      <c r="K153" s="163"/>
+      <c r="L153" s="163"/>
+      <c r="M153" s="163"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="163"/>
+      <c r="C154" s="163"/>
+      <c r="D154" s="163"/>
+      <c r="E154" s="163"/>
+      <c r="F154" s="163"/>
+      <c r="G154" s="163"/>
+      <c r="H154" s="163"/>
+      <c r="I154" s="163"/>
+      <c r="J154" s="163"/>
+      <c r="K154" s="163"/>
+      <c r="L154" s="163"/>
+      <c r="M154" s="163"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" s="163"/>
+      <c r="C155" s="163"/>
+      <c r="D155" s="163"/>
+      <c r="E155" s="163"/>
+      <c r="F155" s="163"/>
+      <c r="G155" s="163"/>
+      <c r="H155" s="163"/>
+      <c r="I155" s="163"/>
+      <c r="J155" s="163"/>
+      <c r="K155" s="163"/>
+      <c r="L155" s="163"/>
+      <c r="M155" s="163"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="163"/>
+      <c r="C156" s="163"/>
+      <c r="D156" s="163"/>
+      <c r="E156" s="163"/>
+      <c r="F156" s="163"/>
+      <c r="G156" s="163"/>
+      <c r="H156" s="163"/>
+      <c r="I156" s="163"/>
+      <c r="J156" s="163"/>
+      <c r="K156" s="163"/>
+      <c r="L156" s="163"/>
+      <c r="M156" s="163"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="163"/>
+      <c r="C157" s="163"/>
+      <c r="D157" s="163"/>
+      <c r="E157" s="163"/>
+      <c r="F157" s="163"/>
+      <c r="G157" s="163"/>
+      <c r="H157" s="163"/>
+      <c r="I157" s="163"/>
+      <c r="J157" s="163"/>
+      <c r="K157" s="163"/>
+      <c r="L157" s="163"/>
+      <c r="M157" s="163"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" s="163"/>
+      <c r="C158" s="163"/>
+      <c r="D158" s="163"/>
+      <c r="E158" s="163"/>
+      <c r="F158" s="163"/>
+      <c r="G158" s="163"/>
+      <c r="H158" s="163"/>
+      <c r="I158" s="163"/>
+      <c r="J158" s="163"/>
+      <c r="K158" s="163"/>
+      <c r="L158" s="163"/>
+      <c r="M158" s="163"/>
+    </row>
+    <row r="159" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="164"/>
+      <c r="C159" s="164"/>
+      <c r="D159" s="164"/>
+      <c r="E159" s="164"/>
+      <c r="F159" s="164"/>
+      <c r="G159" s="164"/>
+      <c r="H159" s="164"/>
+      <c r="I159" s="164"/>
+      <c r="J159" s="164"/>
+      <c r="K159" s="164"/>
+      <c r="L159" s="164"/>
+      <c r="M159" s="164"/>
+    </row>
+    <row r="160" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D160"/>
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="39"/>
+      <c r="B161" s="40">
+        <v>1</v>
+      </c>
+      <c r="C161" s="40">
+        <v>2</v>
+      </c>
+      <c r="D161" s="40">
+        <v>3</v>
+      </c>
+      <c r="E161" s="40">
+        <v>4</v>
+      </c>
+      <c r="F161" s="40">
+        <v>5</v>
+      </c>
+      <c r="G161" s="40">
+        <v>6</v>
+      </c>
+      <c r="H161" s="40">
+        <v>7</v>
+      </c>
+      <c r="I161" s="40">
+        <v>8</v>
+      </c>
+      <c r="J161" s="40">
+        <v>9</v>
+      </c>
+      <c r="K161" s="40">
+        <v>10</v>
+      </c>
+      <c r="L161" s="40">
+        <v>11</v>
+      </c>
+      <c r="M161" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="D162" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="F162" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="G162" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="H162" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="I162" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="J162" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="K162" s="162" t="s">
+        <v>143</v>
+      </c>
+      <c r="L162" s="162" t="s">
+        <v>143</v>
+      </c>
+      <c r="M162" s="162" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="163"/>
+      <c r="C163" s="163"/>
+      <c r="D163" s="163"/>
+      <c r="E163" s="163"/>
+      <c r="F163" s="163"/>
+      <c r="G163" s="163"/>
+      <c r="H163" s="163"/>
+      <c r="I163" s="163"/>
+      <c r="J163" s="163"/>
+      <c r="K163" s="163"/>
+      <c r="L163" s="163"/>
+      <c r="M163" s="163"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" s="163"/>
+      <c r="C164" s="163"/>
+      <c r="D164" s="163"/>
+      <c r="E164" s="163"/>
+      <c r="F164" s="163"/>
+      <c r="G164" s="163"/>
+      <c r="H164" s="163"/>
+      <c r="I164" s="163"/>
+      <c r="J164" s="163"/>
+      <c r="K164" s="163"/>
+      <c r="L164" s="163"/>
+      <c r="M164" s="163"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B165" s="163"/>
+      <c r="C165" s="163"/>
+      <c r="D165" s="163"/>
+      <c r="E165" s="163"/>
+      <c r="F165" s="163"/>
+      <c r="G165" s="163"/>
+      <c r="H165" s="163"/>
+      <c r="I165" s="163"/>
+      <c r="J165" s="163"/>
+      <c r="K165" s="163"/>
+      <c r="L165" s="163"/>
+      <c r="M165" s="163"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="163"/>
+      <c r="C166" s="163"/>
+      <c r="D166" s="163"/>
+      <c r="E166" s="163"/>
+      <c r="F166" s="163"/>
+      <c r="G166" s="163"/>
+      <c r="H166" s="163"/>
+      <c r="I166" s="163"/>
+      <c r="J166" s="163"/>
+      <c r="K166" s="163"/>
+      <c r="L166" s="163"/>
+      <c r="M166" s="163"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" s="163"/>
+      <c r="C167" s="163"/>
+      <c r="D167" s="163"/>
+      <c r="E167" s="163"/>
+      <c r="F167" s="163"/>
+      <c r="G167" s="163"/>
+      <c r="H167" s="163"/>
+      <c r="I167" s="163"/>
+      <c r="J167" s="163"/>
+      <c r="K167" s="163"/>
+      <c r="L167" s="163"/>
+      <c r="M167" s="163"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B168" s="163"/>
+      <c r="C168" s="163"/>
+      <c r="D168" s="163"/>
+      <c r="E168" s="163"/>
+      <c r="F168" s="163"/>
+      <c r="G168" s="163"/>
+      <c r="H168" s="163"/>
+      <c r="I168" s="163"/>
+      <c r="J168" s="163"/>
+      <c r="K168" s="163"/>
+      <c r="L168" s="163"/>
+      <c r="M168" s="163"/>
+    </row>
+    <row r="169" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" s="164"/>
+      <c r="C169" s="164"/>
+      <c r="D169" s="164"/>
+      <c r="E169" s="164"/>
+      <c r="F169" s="164"/>
+      <c r="G169" s="164"/>
+      <c r="H169" s="164"/>
+      <c r="I169" s="164"/>
+      <c r="J169" s="164"/>
+      <c r="K169" s="164"/>
+      <c r="L169" s="164"/>
+      <c r="M169" s="164"/>
+    </row>
+  </sheetData>
+  <mergeCells count="133">
+    <mergeCell ref="Z106:Z113"/>
+    <mergeCell ref="T106:T113"/>
+    <mergeCell ref="U106:U113"/>
+    <mergeCell ref="V106:V113"/>
+    <mergeCell ref="W106:W113"/>
+    <mergeCell ref="X106:X113"/>
+    <mergeCell ref="Y106:Y113"/>
+    <mergeCell ref="V96:V103"/>
+    <mergeCell ref="W96:W103"/>
+    <mergeCell ref="X96:X103"/>
+    <mergeCell ref="Y96:Y103"/>
+    <mergeCell ref="Z96:Z103"/>
+    <mergeCell ref="O106:O113"/>
+    <mergeCell ref="P106:P113"/>
+    <mergeCell ref="Q106:Q113"/>
+    <mergeCell ref="R106:R113"/>
+    <mergeCell ref="S106:S113"/>
+    <mergeCell ref="P96:P103"/>
+    <mergeCell ref="Q96:Q103"/>
+    <mergeCell ref="R96:R103"/>
+    <mergeCell ref="S96:S103"/>
+    <mergeCell ref="T96:T103"/>
+    <mergeCell ref="U96:U103"/>
+    <mergeCell ref="I162:I169"/>
+    <mergeCell ref="J162:J169"/>
+    <mergeCell ref="K162:K169"/>
+    <mergeCell ref="L162:L169"/>
+    <mergeCell ref="M162:M169"/>
+    <mergeCell ref="O96:O103"/>
+    <mergeCell ref="K152:K159"/>
+    <mergeCell ref="L152:L159"/>
+    <mergeCell ref="M152:M159"/>
+    <mergeCell ref="B162:B169"/>
+    <mergeCell ref="C162:C169"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E169"/>
+    <mergeCell ref="F162:F169"/>
+    <mergeCell ref="G162:G169"/>
+    <mergeCell ref="H162:H169"/>
+    <mergeCell ref="M142:M149"/>
+    <mergeCell ref="B152:B159"/>
+    <mergeCell ref="C152:C159"/>
+    <mergeCell ref="D152:D159"/>
+    <mergeCell ref="E152:E159"/>
+    <mergeCell ref="F152:F159"/>
+    <mergeCell ref="G152:G159"/>
+    <mergeCell ref="H152:H159"/>
+    <mergeCell ref="I152:I159"/>
+    <mergeCell ref="J152:J159"/>
+    <mergeCell ref="G142:G149"/>
+    <mergeCell ref="H142:H149"/>
+    <mergeCell ref="I142:I149"/>
+    <mergeCell ref="J142:J149"/>
+    <mergeCell ref="K142:K149"/>
+    <mergeCell ref="L142:L149"/>
+    <mergeCell ref="T83:T90"/>
+    <mergeCell ref="U83:U90"/>
+    <mergeCell ref="V83:V90"/>
+    <mergeCell ref="W83:W90"/>
+    <mergeCell ref="X83:X90"/>
+    <mergeCell ref="B142:B149"/>
+    <mergeCell ref="C142:C149"/>
+    <mergeCell ref="D142:D149"/>
+    <mergeCell ref="E142:E149"/>
+    <mergeCell ref="F142:F149"/>
+    <mergeCell ref="V73:V80"/>
+    <mergeCell ref="W73:W80"/>
+    <mergeCell ref="X73:X80"/>
+    <mergeCell ref="M83:M90"/>
+    <mergeCell ref="N83:N90"/>
+    <mergeCell ref="O83:O90"/>
+    <mergeCell ref="P83:P90"/>
+    <mergeCell ref="Q83:Q90"/>
+    <mergeCell ref="R83:R90"/>
+    <mergeCell ref="S83:S90"/>
+    <mergeCell ref="X63:X70"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="N73:N80"/>
+    <mergeCell ref="O73:O80"/>
+    <mergeCell ref="P73:P80"/>
+    <mergeCell ref="Q73:Q80"/>
+    <mergeCell ref="R73:R80"/>
+    <mergeCell ref="S73:S80"/>
+    <mergeCell ref="T73:T80"/>
+    <mergeCell ref="U73:U80"/>
+    <mergeCell ref="R63:R70"/>
+    <mergeCell ref="S63:S70"/>
+    <mergeCell ref="T63:T70"/>
+    <mergeCell ref="U63:U70"/>
+    <mergeCell ref="V63:V70"/>
+    <mergeCell ref="W63:W70"/>
     <mergeCell ref="T53:T60"/>
     <mergeCell ref="U53:U60"/>
     <mergeCell ref="V53:V60"/>
     <mergeCell ref="W53:W60"/>
     <mergeCell ref="X53:X60"/>
+    <mergeCell ref="M63:M70"/>
+    <mergeCell ref="N63:N70"/>
+    <mergeCell ref="O63:O70"/>
+    <mergeCell ref="P63:P70"/>
+    <mergeCell ref="Q63:Q70"/>
+    <mergeCell ref="V43:V50"/>
+    <mergeCell ref="W43:W50"/>
+    <mergeCell ref="X43:X50"/>
     <mergeCell ref="M53:M60"/>
     <mergeCell ref="N53:N60"/>
     <mergeCell ref="O53:O60"/>
     <mergeCell ref="P53:P60"/>
     <mergeCell ref="Q53:Q60"/>
     <mergeCell ref="R53:R60"/>
-    <mergeCell ref="X43:X50"/>
+    <mergeCell ref="S53:S60"/>
+    <mergeCell ref="X33:X40"/>
     <mergeCell ref="M43:M50"/>
     <mergeCell ref="N43:N50"/>
     <mergeCell ref="O43:O50"/>
@@ -7292,25 +13330,22 @@
     <mergeCell ref="S43:S50"/>
     <mergeCell ref="T43:T50"/>
     <mergeCell ref="U43:U50"/>
-    <mergeCell ref="V43:V50"/>
-    <mergeCell ref="W43:W50"/>
     <mergeCell ref="R33:R40"/>
     <mergeCell ref="S33:S40"/>
-    <mergeCell ref="X33:X40"/>
+    <mergeCell ref="T33:T40"/>
+    <mergeCell ref="U33:U40"/>
+    <mergeCell ref="V33:V40"/>
     <mergeCell ref="W33:W40"/>
-    <mergeCell ref="V33:V40"/>
-    <mergeCell ref="U33:U40"/>
-    <mergeCell ref="T33:T40"/>
-    <mergeCell ref="Q33:Q40"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="M33:M40"/>
     <mergeCell ref="N33:N40"/>
     <mergeCell ref="O33:O40"/>
     <mergeCell ref="P33:P40"/>
+    <mergeCell ref="Q33:Q40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="44" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="18" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20118,8 +26153,8 @@
   </sheetPr>
   <dimension ref="A1:Y133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E52"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23791,6 +29826,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="Q44:Q51"/>
+    <mergeCell ref="Y54:Y61"/>
+    <mergeCell ref="R24:R31"/>
+    <mergeCell ref="Q24:Q31"/>
+    <mergeCell ref="P24:P31"/>
+    <mergeCell ref="Y44:Y51"/>
+    <mergeCell ref="Y34:Y41"/>
+    <mergeCell ref="X24:X31"/>
+    <mergeCell ref="W54:W61"/>
+    <mergeCell ref="X54:X61"/>
+    <mergeCell ref="W44:W51"/>
+    <mergeCell ref="X44:X51"/>
+    <mergeCell ref="W34:W41"/>
+    <mergeCell ref="X34:X41"/>
+    <mergeCell ref="R44:R51"/>
+    <mergeCell ref="S44:S51"/>
+    <mergeCell ref="T44:T51"/>
+    <mergeCell ref="N24:N31"/>
+    <mergeCell ref="S54:S61"/>
+    <mergeCell ref="T54:T61"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
+    <mergeCell ref="U44:U51"/>
+    <mergeCell ref="V44:V51"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="Q54:Q61"/>
+    <mergeCell ref="R54:R61"/>
+    <mergeCell ref="N44:N51"/>
+    <mergeCell ref="O44:O51"/>
+    <mergeCell ref="P44:P51"/>
+    <mergeCell ref="O24:O31"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="Y24:Y31"/>
     <mergeCell ref="N34:N41"/>
@@ -23807,39 +29875,6 @@
     <mergeCell ref="U24:U31"/>
     <mergeCell ref="V24:V31"/>
     <mergeCell ref="W24:W31"/>
-    <mergeCell ref="N24:N31"/>
-    <mergeCell ref="S54:S61"/>
-    <mergeCell ref="T54:T61"/>
-    <mergeCell ref="U54:U61"/>
-    <mergeCell ref="V54:V61"/>
-    <mergeCell ref="U44:U51"/>
-    <mergeCell ref="V44:V51"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="Q54:Q61"/>
-    <mergeCell ref="R54:R61"/>
-    <mergeCell ref="N44:N51"/>
-    <mergeCell ref="O44:O51"/>
-    <mergeCell ref="P44:P51"/>
-    <mergeCell ref="Y54:Y61"/>
-    <mergeCell ref="R24:R31"/>
-    <mergeCell ref="Q24:Q31"/>
-    <mergeCell ref="P24:P31"/>
-    <mergeCell ref="Y44:Y51"/>
-    <mergeCell ref="Y34:Y41"/>
-    <mergeCell ref="X24:X31"/>
-    <mergeCell ref="O24:O31"/>
-    <mergeCell ref="W54:W61"/>
-    <mergeCell ref="X54:X61"/>
-    <mergeCell ref="W44:W51"/>
-    <mergeCell ref="X44:X51"/>
-    <mergeCell ref="W34:W41"/>
-    <mergeCell ref="X34:X41"/>
-    <mergeCell ref="R44:R51"/>
-    <mergeCell ref="S44:S51"/>
-    <mergeCell ref="T44:T51"/>
-    <mergeCell ref="Q44:Q51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34178,7 +40213,7 @@
   <dimension ref="A1:AF169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34193,7 +40228,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -34210,7 +40245,7 @@
       </c>
       <c r="E3" s="165"/>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -34570,6 +40605,9 @@
         <v>40.773333333333333</v>
       </c>
       <c r="J9" s="25"/>
+      <c r="M9" t="s">
+        <v>257</v>
+      </c>
       <c r="R9" s="17" t="s">
         <v>16</v>
       </c>
@@ -39606,6 +45644,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="R73:R80"/>
+    <mergeCell ref="S73:S80"/>
+    <mergeCell ref="T73:T80"/>
+    <mergeCell ref="U73:U80"/>
+    <mergeCell ref="V73:V80"/>
+    <mergeCell ref="W73:W80"/>
+    <mergeCell ref="M83:M90"/>
+    <mergeCell ref="N83:N90"/>
+    <mergeCell ref="O83:O90"/>
+    <mergeCell ref="P83:P90"/>
+    <mergeCell ref="Q83:Q90"/>
+    <mergeCell ref="R83:R90"/>
+    <mergeCell ref="S83:S90"/>
+    <mergeCell ref="T83:T90"/>
+    <mergeCell ref="U83:U90"/>
+    <mergeCell ref="M63:M70"/>
+    <mergeCell ref="K152:K159"/>
+    <mergeCell ref="L152:L159"/>
+    <mergeCell ref="M152:M159"/>
+    <mergeCell ref="T63:T70"/>
+    <mergeCell ref="U63:U70"/>
+    <mergeCell ref="V63:V70"/>
+    <mergeCell ref="W63:W70"/>
+    <mergeCell ref="X63:X70"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="N73:N80"/>
+    <mergeCell ref="O73:O80"/>
+    <mergeCell ref="P73:P80"/>
+    <mergeCell ref="Q73:Q80"/>
+    <mergeCell ref="N63:N70"/>
+    <mergeCell ref="O63:O70"/>
+    <mergeCell ref="P63:P70"/>
+    <mergeCell ref="Q63:Q70"/>
+    <mergeCell ref="R63:R70"/>
+    <mergeCell ref="S63:S70"/>
+    <mergeCell ref="V83:V90"/>
+    <mergeCell ref="W83:W90"/>
+    <mergeCell ref="X83:X90"/>
+    <mergeCell ref="X73:X80"/>
+    <mergeCell ref="G162:G169"/>
+    <mergeCell ref="H162:H169"/>
+    <mergeCell ref="M142:M149"/>
+    <mergeCell ref="B152:B159"/>
+    <mergeCell ref="C152:C159"/>
+    <mergeCell ref="D152:D159"/>
+    <mergeCell ref="E152:E159"/>
+    <mergeCell ref="F152:F159"/>
+    <mergeCell ref="G152:G159"/>
+    <mergeCell ref="H152:H159"/>
+    <mergeCell ref="I152:I159"/>
+    <mergeCell ref="J152:J159"/>
+    <mergeCell ref="G142:G149"/>
+    <mergeCell ref="H142:H149"/>
+    <mergeCell ref="I142:I149"/>
+    <mergeCell ref="J142:J149"/>
+    <mergeCell ref="K142:K149"/>
+    <mergeCell ref="L142:L149"/>
+    <mergeCell ref="I162:I169"/>
+    <mergeCell ref="J162:J169"/>
+    <mergeCell ref="K162:K169"/>
+    <mergeCell ref="L162:L169"/>
+    <mergeCell ref="M162:M169"/>
+    <mergeCell ref="B142:B149"/>
+    <mergeCell ref="C142:C149"/>
+    <mergeCell ref="D142:D149"/>
+    <mergeCell ref="E142:E149"/>
+    <mergeCell ref="F142:F149"/>
+    <mergeCell ref="B162:B169"/>
+    <mergeCell ref="C162:C169"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E169"/>
+    <mergeCell ref="F162:F169"/>
+    <mergeCell ref="X43:X50"/>
+    <mergeCell ref="M53:M60"/>
+    <mergeCell ref="N53:N60"/>
+    <mergeCell ref="O53:O60"/>
+    <mergeCell ref="P53:P60"/>
+    <mergeCell ref="Q53:Q60"/>
+    <mergeCell ref="R53:R60"/>
+    <mergeCell ref="S53:S60"/>
+    <mergeCell ref="T53:T60"/>
+    <mergeCell ref="U53:U60"/>
+    <mergeCell ref="V53:V60"/>
+    <mergeCell ref="W53:W60"/>
+    <mergeCell ref="X53:X60"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="M33:M40"/>
     <mergeCell ref="N33:N40"/>
@@ -39630,91 +45753,6 @@
     <mergeCell ref="W33:W40"/>
     <mergeCell ref="V43:V50"/>
     <mergeCell ref="W43:W50"/>
-    <mergeCell ref="X43:X50"/>
-    <mergeCell ref="M53:M60"/>
-    <mergeCell ref="N53:N60"/>
-    <mergeCell ref="O53:O60"/>
-    <mergeCell ref="P53:P60"/>
-    <mergeCell ref="Q53:Q60"/>
-    <mergeCell ref="R53:R60"/>
-    <mergeCell ref="S53:S60"/>
-    <mergeCell ref="T53:T60"/>
-    <mergeCell ref="U53:U60"/>
-    <mergeCell ref="V53:V60"/>
-    <mergeCell ref="W53:W60"/>
-    <mergeCell ref="X53:X60"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="C142:C149"/>
-    <mergeCell ref="D142:D149"/>
-    <mergeCell ref="E142:E149"/>
-    <mergeCell ref="F142:F149"/>
-    <mergeCell ref="B162:B169"/>
-    <mergeCell ref="C162:C169"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E169"/>
-    <mergeCell ref="F162:F169"/>
-    <mergeCell ref="G162:G169"/>
-    <mergeCell ref="H162:H169"/>
-    <mergeCell ref="M142:M149"/>
-    <mergeCell ref="B152:B159"/>
-    <mergeCell ref="C152:C159"/>
-    <mergeCell ref="D152:D159"/>
-    <mergeCell ref="E152:E159"/>
-    <mergeCell ref="F152:F159"/>
-    <mergeCell ref="G152:G159"/>
-    <mergeCell ref="H152:H159"/>
-    <mergeCell ref="I152:I159"/>
-    <mergeCell ref="J152:J159"/>
-    <mergeCell ref="G142:G149"/>
-    <mergeCell ref="H142:H149"/>
-    <mergeCell ref="I142:I149"/>
-    <mergeCell ref="J142:J149"/>
-    <mergeCell ref="K142:K149"/>
-    <mergeCell ref="L142:L149"/>
-    <mergeCell ref="I162:I169"/>
-    <mergeCell ref="J162:J169"/>
-    <mergeCell ref="K162:K169"/>
-    <mergeCell ref="L162:L169"/>
-    <mergeCell ref="M162:M169"/>
-    <mergeCell ref="M63:M70"/>
-    <mergeCell ref="K152:K159"/>
-    <mergeCell ref="L152:L159"/>
-    <mergeCell ref="M152:M159"/>
-    <mergeCell ref="T63:T70"/>
-    <mergeCell ref="U63:U70"/>
-    <mergeCell ref="V63:V70"/>
-    <mergeCell ref="W63:W70"/>
-    <mergeCell ref="X63:X70"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="N73:N80"/>
-    <mergeCell ref="O73:O80"/>
-    <mergeCell ref="P73:P80"/>
-    <mergeCell ref="Q73:Q80"/>
-    <mergeCell ref="N63:N70"/>
-    <mergeCell ref="O63:O70"/>
-    <mergeCell ref="P63:P70"/>
-    <mergeCell ref="Q63:Q70"/>
-    <mergeCell ref="R63:R70"/>
-    <mergeCell ref="S63:S70"/>
-    <mergeCell ref="V83:V90"/>
-    <mergeCell ref="W83:W90"/>
-    <mergeCell ref="X83:X90"/>
-    <mergeCell ref="X73:X80"/>
-    <mergeCell ref="M83:M90"/>
-    <mergeCell ref="N83:N90"/>
-    <mergeCell ref="O83:O90"/>
-    <mergeCell ref="P83:P90"/>
-    <mergeCell ref="Q83:Q90"/>
-    <mergeCell ref="R83:R90"/>
-    <mergeCell ref="S83:S90"/>
-    <mergeCell ref="T83:T90"/>
-    <mergeCell ref="U83:U90"/>
-    <mergeCell ref="R73:R80"/>
-    <mergeCell ref="S73:S80"/>
-    <mergeCell ref="T73:T80"/>
-    <mergeCell ref="U73:U80"/>
-    <mergeCell ref="V73:V80"/>
-    <mergeCell ref="W73:W80"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46731,8 +52769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="O187" sqref="O187"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
